--- a/invoiced.xlsx
+++ b/invoiced.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanielepp/Desktop/BioinformaticsCore/bussiness_summaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanielepp/Desktop/BioinformaticsCore/business_summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4FE24-289E-8141-9EC0-41ACB3630293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4972AE8B-04A3-714E-8424-FBA6E4AB397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{E48FB9EA-AF56-8749-8F42-D58886B841D4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>Jira</t>
   </si>
@@ -376,6 +376,21 @@
   </si>
   <si>
     <t>Cristoph Benning</t>
+  </si>
+  <si>
+    <t>Rachel Naegle</t>
+  </si>
+  <si>
+    <t>Claire Vielle</t>
+  </si>
+  <si>
+    <t>BCC-120</t>
+  </si>
+  <si>
+    <t>BCC-125</t>
+  </si>
+  <si>
+    <t>BCC-115</t>
   </si>
 </sst>
 </file>
@@ -480,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -503,12 +518,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -534,9 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,17 +640,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -668,6 +689,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE433C-B29E-354A-9C80-1E84791695AA}">
   <dimension ref="A1:I398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="124" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="124" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,565 +1061,565 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>1440</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>44937</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>900</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>45225</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>4650</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>45055</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>360</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>45055</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>5700</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>45055</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>822</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>45055</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>660</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>45166</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>4530</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>45166</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1188</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>45184</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>882</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>45184</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>528</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="33">
         <v>45189</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>446.88</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="33">
         <v>45189</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>1008</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>45194</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>344</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>45195</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>2310</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>45196</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>402</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>45204</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>792</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>45211</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>29015.63</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>45219</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>756</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>45219</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>1260</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <v>45239</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>670</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <v>45246</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>1270.8</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>45252</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>660</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <v>45331</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="32">
         <v>1734.55</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <v>45335</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="39">
         <v>1841.04</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="37">
         <v>45335</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="39">
         <v>1005</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="37">
         <v>45342</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="32">
         <v>576</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>45366</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="32">
         <v>1020</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>45390</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="32">
         <v>688</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>45393</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>1984.2</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>45426</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>1134</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>45432</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>567</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>45432</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>4376</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>45454</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>858</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="37">
         <v>45454</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>3024</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="40">
         <v>45469</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>378</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="37">
         <v>45470</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="39">
         <v>335</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="37">
         <v>45470</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>3150</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="37">
         <v>45470</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="42">
         <v>4473</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="43">
         <v>45526</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="42">
         <v>648</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="43">
         <v>45528</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="44" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="3"/>
@@ -1600,16 +1627,16 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="42">
         <v>504</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="43">
         <v>45540</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3"/>
@@ -1617,16 +1644,16 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="45">
+      <c r="B43" s="42">
         <v>1005</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="45">
         <v>45552</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="44" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3"/>
@@ -1634,16 +1661,16 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="42">
         <v>603</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="46">
         <v>45552</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="47" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="3"/>
@@ -1651,16 +1678,16 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="42">
         <v>1005</v>
       </c>
-      <c r="C45" s="48">
+      <c r="C45" s="45">
         <v>45562</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="44" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="3"/>
@@ -1668,16 +1695,16 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="42">
         <v>407.4</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="43">
         <v>45562</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="44" t="s">
         <v>2</v>
       </c>
       <c r="G46" s="3"/>
@@ -1685,16 +1712,16 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="45">
+      <c r="B47" s="42">
         <v>7001.69</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="43">
         <v>45569</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="48" t="s">
         <v>73</v>
       </c>
       <c r="G47" s="3"/>
@@ -1702,16 +1729,16 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="42">
         <v>10800</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="43">
         <v>45587</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="49" t="s">
         <v>80</v>
       </c>
       <c r="G48" s="3"/>
@@ -1719,16 +1746,16 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="42">
         <v>378</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="43">
         <v>45603</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="44" t="s">
         <v>89</v>
       </c>
       <c r="G49" s="3"/>
@@ -1736,16 +1763,16 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="42">
         <v>252</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="43">
         <v>45603</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="44" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="3"/>
@@ -1753,16 +1780,16 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="50">
         <v>1340</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="43">
         <v>45628</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="44" t="s">
         <v>87</v>
       </c>
       <c r="G51" s="3"/>
@@ -1770,16 +1797,16 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="42">
         <v>756</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="43">
         <v>45649</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="44" t="s">
         <v>84</v>
       </c>
       <c r="G52" s="3"/>
@@ -1787,16 +1814,16 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="45">
+      <c r="B53" s="42">
         <v>704</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="43">
         <v>45649</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="44" t="s">
         <v>83</v>
       </c>
       <c r="G53" s="3"/>
@@ -1804,16 +1831,16 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="53">
+      <c r="B54" s="50">
         <v>1290</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="43">
         <v>45649</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="48" t="s">
         <v>82</v>
       </c>
       <c r="G54" s="3"/>
@@ -1821,16 +1848,16 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="42">
         <v>1134</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="43">
         <v>45649</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G55" s="3"/>
@@ -1838,34 +1865,34 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="45">
+      <c r="B56" s="42">
         <v>134</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="45">
         <v>45663</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="23"/>
       <c r="G56" s="3"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="45">
+      <c r="B57" s="42">
         <v>6948</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="43">
         <v>45671</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G57" s="3"/>
@@ -1873,16 +1900,16 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="42">
         <v>270</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="43">
         <v>45672</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="44" t="s">
         <v>88</v>
       </c>
       <c r="G58" s="3"/>
@@ -1890,16 +1917,16 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="52">
         <v>5025</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="43">
         <v>45674</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="48" t="s">
         <v>91</v>
       </c>
       <c r="G59" s="3"/>
@@ -1907,16 +1934,16 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="52">
         <v>2680</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="43">
         <v>45698</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="48" t="s">
         <v>92</v>
       </c>
       <c r="G60" s="3"/>
@@ -1924,16 +1951,16 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="45">
+      <c r="B61" s="42">
         <v>630</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="43">
         <v>45698</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="48" t="s">
         <v>94</v>
       </c>
       <c r="G61" s="3"/>
@@ -1941,16 +1968,16 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="42">
         <v>378</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="53">
         <v>45727</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="48" t="s">
         <v>95</v>
       </c>
       <c r="G62" s="3"/>
@@ -1958,16 +1985,16 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="45">
+      <c r="B63" s="42">
         <v>918</v>
       </c>
-      <c r="C63" s="46">
+      <c r="C63" s="43">
         <v>45728</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="48" t="s">
         <v>98</v>
       </c>
       <c r="G63" s="3"/>
@@ -1975,16 +2002,16 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="42">
         <v>504</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="43">
         <v>45728</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="48" t="s">
         <v>99</v>
       </c>
       <c r="G64" s="3"/>
@@ -1992,16 +2019,16 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="45">
+      <c r="B65" s="42">
         <v>1340</v>
       </c>
-      <c r="C65" s="46">
+      <c r="C65" s="43">
         <v>45734</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="48" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="3"/>
@@ -2009,16 +2036,16 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="42">
         <v>670</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="43">
         <v>45734</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="48" t="s">
         <v>100</v>
       </c>
       <c r="G66" s="3"/>
@@ -2026,46 +2053,70 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="45">
+      <c r="B67" s="42">
         <v>1072</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="43">
         <v>45734</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="11"/>
+      <c r="E67" s="10"/>
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="6"/>
+      <c r="A68" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C68" s="55">
+        <v>45741</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="6"/>
+      <c r="A69" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C69" s="55">
+        <v>45741</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="12">
+        <v>2010</v>
+      </c>
+      <c r="C70" s="55">
+        <v>45743</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5065,6 +5116,9 @@
     <hyperlink ref="D58" r:id="rId43" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-131" xr:uid="{BF9C639B-F550-024E-9AA2-123B5F20134F}"/>
     <hyperlink ref="D49" r:id="rId44" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-114" xr:uid="{AAC97D52-9515-DE4D-B109-6E5B0047AECD}"/>
     <hyperlink ref="D56" r:id="rId45" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-109" xr:uid="{2D1F9345-FF1F-0F4A-B69C-1A976AC27378}"/>
+    <hyperlink ref="D68" r:id="rId46" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-120" xr:uid="{3EDA7D34-DAF6-F344-81C9-BC033B077780}"/>
+    <hyperlink ref="D69" r:id="rId47" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-125" xr:uid="{FDC044E2-79A7-DC47-888D-31E48A3384D8}"/>
+    <hyperlink ref="D70" r:id="rId48" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-115?atlOrigin=eyJpIjoiYTJkZDc0NmNmMmFiNDhmMDkwZjc1ZTJkYjE4MDc0ZjciLCJwIjoiaiJ9" xr:uid="{8D8B9472-5911-C34E-B4AC-3FD07397B774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5081,420 +5135,420 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>4473</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45526</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>648</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45528</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>504</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45540</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1005</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>45552</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>603</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>45552</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>1005</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45562</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12">
         <v>7001</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45562</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>407.4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45562</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>10800</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45587</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>252</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45603</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>378</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45603</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>1340.81</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>45628</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>756</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45649</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>704</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45649</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>1290</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45649</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>1134</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45649</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>134</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45663</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>6948</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45671</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>270</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45672</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12">
         <v>5025</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>45674</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>2680</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>45698</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>630</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>45698</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>378</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>45727</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>918</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>45728</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>504</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>45728</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>1340</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>45734</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>670</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>45734</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>1072</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>45734</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5512,12 +5566,12 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
     </row>
@@ -5637,7 +5691,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
     </row>

--- a/invoiced.xlsx
+++ b/invoiced.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanielepp/Desktop/BioinformaticsCore/business_summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4972AE8B-04A3-714E-8424-FBA6E4AB397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B24DA-3F07-0443-BBA1-2EEDCBB8A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{E48FB9EA-AF56-8749-8F42-D58886B841D4}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{E48FB9EA-AF56-8749-8F42-D58886B841D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$67</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>Jira</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Barry Bradford</t>
   </si>
   <si>
-    <t>Cristoph Bennig</t>
-  </si>
-  <si>
     <t>Xiufen Li</t>
   </si>
   <si>
@@ -363,15 +360,6 @@
     <t>BCC-110</t>
   </si>
   <si>
-    <t>Dr Ed Vargo</t>
-  </si>
-  <si>
-    <t>Michael Thomashow</t>
-  </si>
-  <si>
-    <t>Submitted for approval</t>
-  </si>
-  <si>
     <t>BCC-36</t>
   </si>
   <si>
@@ -391,16 +379,68 @@
   </si>
   <si>
     <t>BCC-115</t>
+  </si>
+  <si>
+    <t>BCC-130</t>
+  </si>
+  <si>
+    <t>BCC-161</t>
+  </si>
+  <si>
+    <t>BCC-31&amp;32</t>
+  </si>
+  <si>
+    <t>BCC-140</t>
+  </si>
+  <si>
+    <t>BCC-160</t>
+  </si>
+  <si>
+    <t>BCC-128</t>
+  </si>
+  <si>
+    <t>BCC-164</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>BCC-125-2</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>BCC-173</t>
+  </si>
+  <si>
+    <t>BCC-179</t>
+  </si>
+  <si>
+    <t>BCC-176</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,9 +497,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -534,11 +581,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -548,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,40 +614,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,14 +705,44 @@
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1035,1097 +1079,1098 @@
   <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="124" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="30.1640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1440</v>
+      </c>
+      <c r="C2" s="15">
+        <v>44937</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="14">
+        <v>900</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45225</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4650</v>
+      </c>
+      <c r="C4" s="15">
+        <v>45055</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="26">
-        <v>1440</v>
-      </c>
-      <c r="C2" s="27">
-        <v>44937</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="B5" s="14">
+        <v>360</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45055</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5700</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45055</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14">
+        <v>822</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45055</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="20">
+        <v>660</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45166</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="20">
+        <v>4530</v>
+      </c>
+      <c r="C9" s="23">
+        <v>45166</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1188</v>
+      </c>
+      <c r="C10" s="21">
+        <v>45184</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="20">
+        <v>882</v>
+      </c>
+      <c r="C11" s="21">
+        <v>45184</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="20">
+        <v>528</v>
+      </c>
+      <c r="C12" s="21">
+        <v>45189</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="20">
+        <v>446.88</v>
+      </c>
+      <c r="C13" s="21">
+        <v>45189</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="21">
+        <v>45194</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="20">
+        <v>344</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45195</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2310</v>
+      </c>
+      <c r="C16" s="25">
+        <v>45196</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="20">
+        <v>402</v>
+      </c>
+      <c r="C17" s="21">
+        <v>45204</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="20">
+        <v>792</v>
+      </c>
+      <c r="C18" s="25">
+        <v>45211</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="20">
+        <v>29015.63</v>
+      </c>
+      <c r="C19" s="21">
+        <v>45219</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="20">
+        <v>756</v>
+      </c>
+      <c r="C20" s="21">
+        <v>45219</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1260</v>
+      </c>
+      <c r="C21" s="21">
+        <v>45239</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="20">
+        <v>670</v>
+      </c>
+      <c r="C22" s="21">
+        <v>45246</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1270.8</v>
+      </c>
+      <c r="C23" s="25">
+        <v>45252</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="20">
+        <v>660</v>
+      </c>
+      <c r="C24" s="25">
+        <v>45331</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="20">
+        <v>1734.55</v>
+      </c>
+      <c r="C25" s="25">
+        <v>45335</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="27">
+        <v>1841.04</v>
+      </c>
+      <c r="C26" s="25">
+        <v>45335</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="27">
+        <v>1005</v>
+      </c>
+      <c r="C27" s="25">
+        <v>45342</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="20">
+        <v>576</v>
+      </c>
+      <c r="C28" s="21">
+        <v>45366</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="26">
-        <v>900</v>
-      </c>
-      <c r="C3" s="11">
-        <v>45225</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="26">
-        <v>4650</v>
-      </c>
-      <c r="C4" s="27">
-        <v>45055</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="B29" s="20">
+        <v>1020</v>
+      </c>
+      <c r="C29" s="21">
+        <v>45390</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="20">
+        <v>688</v>
+      </c>
+      <c r="C30" s="25">
+        <v>45393</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1984.2</v>
+      </c>
+      <c r="C31" s="21">
+        <v>45426</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="20">
+        <v>1134</v>
+      </c>
+      <c r="C32" s="25">
+        <v>45432</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="20">
+        <v>567</v>
+      </c>
+      <c r="C33" s="25">
+        <v>45432</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="26">
-        <v>360</v>
-      </c>
-      <c r="C5" s="27">
-        <v>45055</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="26">
-        <v>5700</v>
-      </c>
-      <c r="C6" s="27">
-        <v>45055</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="26">
-        <v>822</v>
-      </c>
-      <c r="C7" s="27">
-        <v>45055</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="32">
-        <v>660</v>
-      </c>
-      <c r="C8" s="33">
-        <v>45166</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="32">
-        <v>4530</v>
-      </c>
-      <c r="C9" s="35">
-        <v>45166</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="B34" s="20">
+        <v>4376</v>
+      </c>
+      <c r="C34" s="25">
+        <v>45454</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="32">
-        <v>1188</v>
-      </c>
-      <c r="C10" s="33">
-        <v>45184</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="32">
-        <v>882</v>
-      </c>
-      <c r="C11" s="33">
-        <v>45184</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="32">
-        <v>528</v>
-      </c>
-      <c r="C12" s="33">
-        <v>45189</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="32">
-        <v>446.88</v>
-      </c>
-      <c r="C13" s="33">
-        <v>45189</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="B35" s="20">
+        <v>858</v>
+      </c>
+      <c r="C35" s="25">
+        <v>45454</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="32">
-        <v>1008</v>
-      </c>
-      <c r="C14" s="33">
-        <v>45194</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="32">
-        <v>344</v>
-      </c>
-      <c r="C15" s="33">
-        <v>45195</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="32">
-        <v>2310</v>
-      </c>
-      <c r="C16" s="37">
-        <v>45196</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="32">
-        <v>402</v>
-      </c>
-      <c r="C17" s="33">
-        <v>45204</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="32">
-        <v>792</v>
-      </c>
-      <c r="C18" s="37">
-        <v>45211</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="32">
-        <v>29015.63</v>
-      </c>
-      <c r="C19" s="33">
-        <v>45219</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="32">
+      <c r="B36" s="20">
+        <v>3024</v>
+      </c>
+      <c r="C36" s="28">
+        <v>45469</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="20">
+        <v>378</v>
+      </c>
+      <c r="C37" s="25">
+        <v>45470</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="27">
+        <v>335</v>
+      </c>
+      <c r="C38" s="25">
+        <v>45470</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="20">
+        <v>3150</v>
+      </c>
+      <c r="C39" s="25">
+        <v>45470</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="30">
         <v>756</v>
       </c>
-      <c r="C20" s="33">
-        <v>45219</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="32">
-        <v>1260</v>
-      </c>
-      <c r="C21" s="33">
-        <v>45239</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="32">
-        <v>670</v>
-      </c>
-      <c r="C22" s="33">
-        <v>45246</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="32">
-        <v>1270.8</v>
-      </c>
-      <c r="C23" s="37">
-        <v>45252</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="32">
-        <v>660</v>
-      </c>
-      <c r="C24" s="37">
-        <v>45331</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="32">
-        <v>1734.55</v>
-      </c>
-      <c r="C25" s="37">
-        <v>45335</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="39">
-        <v>1841.04</v>
-      </c>
-      <c r="C26" s="37">
-        <v>45335</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="39">
-        <v>1005</v>
-      </c>
-      <c r="C27" s="37">
-        <v>45342</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="32">
-        <v>576</v>
-      </c>
-      <c r="C28" s="33">
-        <v>45366</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="32">
-        <v>1020</v>
-      </c>
-      <c r="C29" s="33">
-        <v>45390</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="32">
-        <v>688</v>
-      </c>
-      <c r="C30" s="37">
-        <v>45393</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="32">
-        <v>1984.2</v>
-      </c>
-      <c r="C31" s="33">
-        <v>45426</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="32">
-        <v>1134</v>
-      </c>
-      <c r="C32" s="37">
-        <v>45432</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="32">
-        <v>567</v>
-      </c>
-      <c r="C33" s="37">
-        <v>45432</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="32">
-        <v>4376</v>
-      </c>
-      <c r="C34" s="37">
-        <v>45454</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="32">
-        <v>858</v>
-      </c>
-      <c r="C35" s="37">
-        <v>45454</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="32">
-        <v>3024</v>
-      </c>
-      <c r="C36" s="40">
-        <v>45469</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="32">
-        <v>378</v>
-      </c>
-      <c r="C37" s="37">
-        <v>45470</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="39">
-        <v>335</v>
-      </c>
-      <c r="C38" s="37">
-        <v>45470</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="32">
-        <v>3150</v>
-      </c>
-      <c r="C39" s="37">
-        <v>45470</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="42">
-        <v>4473</v>
-      </c>
-      <c r="C40" s="43">
-        <v>45526</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="3"/>
+      <c r="C40" s="31">
+        <v>45649</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="42">
-        <v>648</v>
-      </c>
-      <c r="C41" s="43">
+      <c r="A41" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="9">
+        <v>673.92</v>
+      </c>
+      <c r="C41" s="31">
         <v>45528</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="F41" s="9"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="30">
+        <v>1005</v>
+      </c>
+      <c r="C42" s="33">
+        <v>45552</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="42">
-        <v>504</v>
-      </c>
-      <c r="C42" s="43">
-        <v>45540</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="42">
-        <v>1005</v>
-      </c>
-      <c r="C43" s="45">
+      <c r="B43" s="30">
+        <v>603</v>
+      </c>
+      <c r="C43" s="34">
         <v>45552</v>
       </c>
-      <c r="D43" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3"/>
+      <c r="D43" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="42">
-        <v>603</v>
-      </c>
-      <c r="C44" s="46">
-        <v>45552</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="3"/>
+      <c r="A44" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="30">
+        <v>704</v>
+      </c>
+      <c r="C44" s="31">
+        <v>45649</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="9"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="42">
-        <v>1005</v>
-      </c>
-      <c r="C45" s="45">
-        <v>45562</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="3"/>
+      <c r="A45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="9">
+        <v>519.12</v>
+      </c>
+      <c r="C45" s="31">
+        <v>45540</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="9"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="42">
-        <v>407.4</v>
-      </c>
-      <c r="C46" s="43">
-        <v>45562</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3"/>
+      <c r="A46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="30">
+        <v>134</v>
+      </c>
+      <c r="C46" s="33">
+        <v>45663</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="9"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="42">
-        <v>7001.69</v>
-      </c>
-      <c r="C47" s="43">
+      <c r="A47" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="9">
+        <v>7001</v>
+      </c>
+      <c r="C47" s="31">
         <v>45569</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="3"/>
+      <c r="D47" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="42">
-        <v>10800</v>
-      </c>
-      <c r="C48" s="43">
-        <v>45587</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="3"/>
+      <c r="A48" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="40">
+        <v>2680</v>
+      </c>
+      <c r="C48" s="31">
+        <v>45698</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="42">
+      <c r="A49" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="30">
         <v>378</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="31">
         <v>45603</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="3"/>
+      <c r="D49" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="9"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="42">
-        <v>252</v>
-      </c>
-      <c r="C50" s="43">
-        <v>45603</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="3"/>
+      <c r="A50" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2051.58</v>
+      </c>
+      <c r="C50" s="50">
+        <v>45743</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="9"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="50">
-        <v>1340</v>
-      </c>
-      <c r="C51" s="43">
-        <v>45628</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="3"/>
+      <c r="A51" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="38">
+        <v>1290</v>
+      </c>
+      <c r="C51" s="31">
+        <v>45649</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="9"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="42">
-        <v>756</v>
-      </c>
-      <c r="C52" s="43">
-        <v>45649</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="3"/>
+      <c r="A52" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1340.81</v>
+      </c>
+      <c r="C52" s="31">
+        <v>45628</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="42">
-        <v>704</v>
-      </c>
-      <c r="C53" s="43">
-        <v>45649</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="3"/>
+      <c r="A53" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="48">
+        <v>2010</v>
+      </c>
+      <c r="C53" s="50">
+        <v>45741</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="9"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="50">
-        <v>1290</v>
-      </c>
-      <c r="C54" s="43">
-        <v>45649</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="3"/>
+      <c r="A54" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="47">
+        <v>5025</v>
+      </c>
+      <c r="C54" s="31">
+        <v>45674</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="42">
-        <v>1134</v>
-      </c>
-      <c r="C55" s="43">
-        <v>45649</v>
-      </c>
-      <c r="D55" s="44" t="s">
+      <c r="A55" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="B55" s="9">
+        <v>2625.84</v>
+      </c>
+      <c r="C55" s="50">
+        <v>45741</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="9"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="42">
-        <v>134</v>
-      </c>
-      <c r="C56" s="45">
-        <v>45663</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="23"/>
-      <c r="G56" s="3"/>
+      <c r="A56" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="30">
+        <v>6948</v>
+      </c>
+      <c r="C56" s="31">
+        <v>45671</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="9"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="42">
-        <v>6948</v>
-      </c>
-      <c r="C57" s="43">
-        <v>45671</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="3"/>
+      <c r="A57" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="30">
+        <v>630</v>
+      </c>
+      <c r="C57" s="31">
+        <v>45698</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="9"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="42">
-        <v>270</v>
-      </c>
-      <c r="C58" s="43">
+      <c r="A58" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="9">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="C58" s="31">
         <v>45672</v>
       </c>
-      <c r="D58" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="3"/>
+      <c r="D58" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="9"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="52">
-        <v>5025</v>
-      </c>
-      <c r="C59" s="43">
-        <v>45674</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="3"/>
+      <c r="A59" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="30">
+        <v>918</v>
+      </c>
+      <c r="C59" s="31">
+        <v>45728</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="9"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="52">
-        <v>2680</v>
-      </c>
-      <c r="C60" s="43">
-        <v>45698</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="3"/>
+      <c r="A60" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="30">
+        <v>504</v>
+      </c>
+      <c r="C60" s="31">
+        <v>45728</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="9"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="42">
-        <v>630</v>
-      </c>
-      <c r="C61" s="43">
-        <v>45698</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="3"/>
+      <c r="A61" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="30">
+        <v>1340</v>
+      </c>
+      <c r="C61" s="31">
+        <v>45734</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="9"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="42">
-        <v>378</v>
-      </c>
-      <c r="C62" s="53">
-        <v>45727</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="3"/>
+      <c r="A62" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="30">
+        <v>670</v>
+      </c>
+      <c r="C62" s="41">
+        <v>45734</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="9"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="42">
-        <v>918</v>
-      </c>
-      <c r="C63" s="43">
-        <v>45728</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="3"/>
+      <c r="A63" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="30">
+        <v>378</v>
+      </c>
+      <c r="C63" s="49">
+        <v>45727</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="9"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="42">
-        <v>504</v>
-      </c>
-      <c r="C64" s="43">
-        <v>45728</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="3"/>
+      <c r="A64" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="30">
+        <v>1072</v>
+      </c>
+      <c r="C64" s="31">
+        <v>45734</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="42">
-        <v>1340</v>
-      </c>
-      <c r="C65" s="43">
-        <v>45734</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="3"/>
+      <c r="A65" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="30">
+        <v>1005</v>
+      </c>
+      <c r="C65" s="33">
+        <v>45562</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="9"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="42">
-        <v>670</v>
-      </c>
-      <c r="C66" s="43">
-        <v>45734</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="G66" s="3"/>
+      <c r="A66" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="30">
+        <v>10800</v>
+      </c>
+      <c r="C66" s="31">
+        <v>45587</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="9"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="42">
-        <v>1072</v>
-      </c>
-      <c r="C67" s="43">
-        <v>45734</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="G67" s="3"/>
+      <c r="B67" s="30">
+        <v>4473</v>
+      </c>
+      <c r="C67" s="31">
+        <v>45526</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="9"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="12">
-        <v>2010</v>
-      </c>
-      <c r="C68" s="55">
-        <v>45741</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" s="3"/>
+      <c r="A68" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="9">
+        <v>259.56</v>
+      </c>
+      <c r="C68" s="51">
+        <v>45603</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="12">
-        <v>2010</v>
-      </c>
-      <c r="C69" s="55">
-        <v>45741</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="3"/>
+      <c r="A69" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="38">
+        <v>1134</v>
+      </c>
+      <c r="C69" s="51">
+        <v>45649</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="9"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="12">
-        <v>2010</v>
-      </c>
-      <c r="C70" s="55">
-        <v>45743</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="3"/>
+      <c r="A70" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="38">
+        <v>407.4</v>
+      </c>
+      <c r="C70" s="51">
+        <v>45562</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="9"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2134,7 +2179,8 @@
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2143,7 +2189,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="5"/>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2152,7 +2198,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="5"/>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2161,7 +2207,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="5"/>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2170,7 +2216,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="5"/>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -2179,7 +2225,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="5"/>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -2188,7 +2234,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="5"/>
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -2197,7 +2243,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="5"/>
       <c r="G79" s="3"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2206,7 +2252,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="5"/>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -2215,7 +2261,7 @@
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="5"/>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2224,7 +2270,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="5"/>
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -2233,7 +2279,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="5"/>
       <c r="G83" s="3"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -2242,7 +2288,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="5"/>
       <c r="G84" s="3"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2251,7 +2297,7 @@
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="5"/>
       <c r="G85" s="3"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2260,7 +2306,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="5"/>
       <c r="G86" s="3"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2269,7 +2315,7 @@
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="5"/>
       <c r="G87" s="3"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2278,7 +2324,7 @@
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="5"/>
       <c r="G88" s="3"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2287,7 +2333,7 @@
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="5"/>
       <c r="G89" s="3"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2296,7 +2342,7 @@
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="5"/>
       <c r="G90" s="3"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2305,7 +2351,7 @@
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="5"/>
       <c r="G91" s="3"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2314,7 +2360,7 @@
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="5"/>
       <c r="G92" s="3"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2323,7 +2369,7 @@
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="5"/>
       <c r="G93" s="3"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2332,7 +2378,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="5"/>
       <c r="G94" s="3"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2341,7 +2387,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="5"/>
       <c r="G95" s="3"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2350,7 +2396,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="5"/>
       <c r="G96" s="3"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2359,7 +2405,7 @@
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="5"/>
       <c r="G97" s="3"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -2368,7 +2414,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="5"/>
       <c r="G98" s="3"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -2377,7 +2423,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="5"/>
       <c r="G99" s="3"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -2386,7 +2432,7 @@
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="5"/>
       <c r="G100" s="3"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -2395,7 +2441,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="5"/>
       <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -2404,7 +2450,7 @@
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="5"/>
       <c r="G102" s="3"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -2413,7 +2459,7 @@
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="5"/>
       <c r="G103" s="3"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -2422,7 +2468,7 @@
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="5"/>
       <c r="G104" s="3"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -2431,7 +2477,7 @@
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="5"/>
       <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -2440,7 +2486,7 @@
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="5"/>
       <c r="G106" s="3"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -2449,7 +2495,7 @@
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="5"/>
       <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -2458,7 +2504,7 @@
       <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="5"/>
       <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -2467,7 +2513,7 @@
       <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="5"/>
       <c r="G109" s="3"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -2476,7 +2522,7 @@
       <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="5"/>
       <c r="G110" s="3"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -2485,7 +2531,7 @@
       <c r="A111" s="3"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="5"/>
       <c r="G111" s="3"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -2494,7 +2540,7 @@
       <c r="A112" s="3"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="5"/>
       <c r="G112" s="3"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -2503,7 +2549,7 @@
       <c r="A113" s="3"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="6"/>
+      <c r="D113" s="5"/>
       <c r="G113" s="3"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -2512,7 +2558,7 @@
       <c r="A114" s="3"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="5"/>
       <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -2521,7 +2567,7 @@
       <c r="A115" s="3"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="5"/>
       <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -2530,7 +2576,7 @@
       <c r="A116" s="3"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="5"/>
       <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -2539,7 +2585,7 @@
       <c r="A117" s="3"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="5"/>
       <c r="G117" s="3"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -2548,7 +2594,7 @@
       <c r="A118" s="3"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="5"/>
       <c r="G118" s="3"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -2557,7 +2603,7 @@
       <c r="A119" s="3"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="5"/>
       <c r="G119" s="3"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -2566,7 +2612,7 @@
       <c r="A120" s="3"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="5"/>
       <c r="G120" s="3"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -2575,7 +2621,7 @@
       <c r="A121" s="3"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="5"/>
       <c r="G121" s="3"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -2584,7 +2630,7 @@
       <c r="A122" s="3"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="5"/>
       <c r="G122" s="3"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -2593,7 +2639,7 @@
       <c r="A123" s="3"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="5"/>
       <c r="G123" s="3"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -2602,7 +2648,7 @@
       <c r="A124" s="3"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="5"/>
       <c r="G124" s="3"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -2611,7 +2657,7 @@
       <c r="A125" s="3"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="6"/>
+      <c r="D125" s="5"/>
       <c r="G125" s="3"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -2620,7 +2666,7 @@
       <c r="A126" s="3"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="5"/>
       <c r="G126" s="3"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -2629,7 +2675,7 @@
       <c r="A127" s="3"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="6"/>
+      <c r="D127" s="5"/>
       <c r="G127" s="3"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -2638,7 +2684,7 @@
       <c r="A128" s="3"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="6"/>
+      <c r="D128" s="5"/>
       <c r="G128" s="3"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -2647,7 +2693,7 @@
       <c r="A129" s="3"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="6"/>
+      <c r="D129" s="5"/>
       <c r="G129" s="3"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -2656,7 +2702,7 @@
       <c r="A130" s="3"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="6"/>
+      <c r="D130" s="5"/>
       <c r="G130" s="3"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -2665,7 +2711,7 @@
       <c r="A131" s="3"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="6"/>
+      <c r="D131" s="5"/>
       <c r="G131" s="3"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -2674,7 +2720,7 @@
       <c r="A132" s="3"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="6"/>
+      <c r="D132" s="5"/>
       <c r="G132" s="3"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -2683,7 +2729,7 @@
       <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="6"/>
+      <c r="D133" s="5"/>
       <c r="G133" s="3"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -2692,7 +2738,7 @@
       <c r="A134" s="3"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="6"/>
+      <c r="D134" s="5"/>
       <c r="G134" s="3"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -2701,7 +2747,7 @@
       <c r="A135" s="3"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="6"/>
+      <c r="D135" s="5"/>
       <c r="G135" s="3"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -2710,7 +2756,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="6"/>
+      <c r="D136" s="5"/>
       <c r="G136" s="3"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -2719,7 +2765,7 @@
       <c r="A137" s="3"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="6"/>
+      <c r="D137" s="5"/>
       <c r="G137" s="3"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -2728,7 +2774,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="6"/>
+      <c r="D138" s="5"/>
       <c r="G138" s="3"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -2737,7 +2783,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="6"/>
+      <c r="D139" s="5"/>
       <c r="G139" s="3"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -2746,7 +2792,7 @@
       <c r="A140" s="3"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="6"/>
+      <c r="D140" s="5"/>
       <c r="G140" s="3"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -2755,7 +2801,7 @@
       <c r="A141" s="3"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="6"/>
+      <c r="D141" s="5"/>
       <c r="G141" s="3"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -2764,7 +2810,7 @@
       <c r="A142" s="3"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="6"/>
+      <c r="D142" s="5"/>
       <c r="G142" s="3"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -2773,7 +2819,7 @@
       <c r="A143" s="3"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="6"/>
+      <c r="D143" s="5"/>
       <c r="G143" s="3"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -2782,7 +2828,7 @@
       <c r="A144" s="3"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="6"/>
+      <c r="D144" s="5"/>
       <c r="G144" s="3"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -2791,7 +2837,7 @@
       <c r="A145" s="3"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="6"/>
+      <c r="D145" s="5"/>
       <c r="G145" s="3"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -2800,7 +2846,7 @@
       <c r="A146" s="3"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="6"/>
+      <c r="D146" s="5"/>
       <c r="G146" s="3"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -2809,7 +2855,7 @@
       <c r="A147" s="3"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="6"/>
+      <c r="D147" s="5"/>
       <c r="G147" s="3"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -2818,7 +2864,7 @@
       <c r="A148" s="3"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="6"/>
+      <c r="D148" s="5"/>
       <c r="G148" s="3"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -2827,7 +2873,7 @@
       <c r="A149" s="3"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="6"/>
+      <c r="D149" s="5"/>
       <c r="G149" s="3"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -2836,7 +2882,7 @@
       <c r="A150" s="3"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="6"/>
+      <c r="D150" s="5"/>
       <c r="G150" s="3"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -2845,7 +2891,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="6"/>
+      <c r="D151" s="5"/>
       <c r="G151" s="3"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -2854,7 +2900,7 @@
       <c r="A152" s="3"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="6"/>
+      <c r="D152" s="5"/>
       <c r="G152" s="3"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -2863,7 +2909,7 @@
       <c r="A153" s="3"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="6"/>
+      <c r="D153" s="5"/>
       <c r="G153" s="3"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -2872,7 +2918,7 @@
       <c r="A154" s="3"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="6"/>
+      <c r="D154" s="5"/>
       <c r="G154" s="3"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -2881,7 +2927,7 @@
       <c r="A155" s="3"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="6"/>
+      <c r="D155" s="5"/>
       <c r="G155" s="3"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -2890,7 +2936,7 @@
       <c r="A156" s="3"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="6"/>
+      <c r="D156" s="5"/>
       <c r="G156" s="3"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -2899,7 +2945,7 @@
       <c r="A157" s="3"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="6"/>
+      <c r="D157" s="5"/>
       <c r="G157" s="3"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -2908,7 +2954,7 @@
       <c r="A158" s="3"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="6"/>
+      <c r="D158" s="5"/>
       <c r="G158" s="3"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -2917,7 +2963,7 @@
       <c r="A159" s="3"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="6"/>
+      <c r="D159" s="5"/>
       <c r="G159" s="3"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -2926,7 +2972,7 @@
       <c r="A160" s="3"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="6"/>
+      <c r="D160" s="5"/>
       <c r="G160" s="3"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -2935,7 +2981,7 @@
       <c r="A161" s="3"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="6"/>
+      <c r="D161" s="5"/>
       <c r="G161" s="3"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -2944,7 +2990,7 @@
       <c r="A162" s="3"/>
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="6"/>
+      <c r="D162" s="5"/>
       <c r="G162" s="3"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -2953,7 +2999,7 @@
       <c r="A163" s="3"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="6"/>
+      <c r="D163" s="5"/>
       <c r="G163" s="3"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -2962,7 +3008,7 @@
       <c r="A164" s="3"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="6"/>
+      <c r="D164" s="5"/>
       <c r="G164" s="3"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -2971,7 +3017,7 @@
       <c r="A165" s="3"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="6"/>
+      <c r="D165" s="5"/>
       <c r="G165" s="3"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -2980,7 +3026,7 @@
       <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="6"/>
+      <c r="D166" s="5"/>
       <c r="G166" s="3"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -2989,7 +3035,7 @@
       <c r="A167" s="3"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="6"/>
+      <c r="D167" s="5"/>
       <c r="G167" s="3"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -2998,7 +3044,7 @@
       <c r="A168" s="3"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="6"/>
+      <c r="D168" s="5"/>
       <c r="G168" s="3"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -3007,7 +3053,7 @@
       <c r="A169" s="3"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="6"/>
+      <c r="D169" s="5"/>
       <c r="G169" s="3"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -3016,7 +3062,7 @@
       <c r="A170" s="3"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="6"/>
+      <c r="D170" s="5"/>
       <c r="G170" s="3"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -3025,7 +3071,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="6"/>
+      <c r="D171" s="5"/>
       <c r="G171" s="3"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -3034,7 +3080,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="6"/>
+      <c r="D172" s="5"/>
       <c r="G172" s="3"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -3043,7 +3089,7 @@
       <c r="A173" s="3"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="6"/>
+      <c r="D173" s="5"/>
       <c r="G173" s="3"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -3052,7 +3098,7 @@
       <c r="A174" s="3"/>
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="6"/>
+      <c r="D174" s="5"/>
       <c r="G174" s="3"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -3061,7 +3107,7 @@
       <c r="A175" s="3"/>
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="6"/>
+      <c r="D175" s="5"/>
       <c r="G175" s="3"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -3070,7 +3116,7 @@
       <c r="A176" s="3"/>
       <c r="B176" s="1"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="6"/>
+      <c r="D176" s="5"/>
       <c r="G176" s="3"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -3079,7 +3125,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="6"/>
+      <c r="D177" s="5"/>
       <c r="G177" s="3"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -3088,7 +3134,7 @@
       <c r="A178" s="3"/>
       <c r="B178" s="1"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="6"/>
+      <c r="D178" s="5"/>
       <c r="G178" s="3"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -3097,7 +3143,7 @@
       <c r="A179" s="3"/>
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="6"/>
+      <c r="D179" s="5"/>
       <c r="G179" s="3"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -3106,7 +3152,7 @@
       <c r="A180" s="3"/>
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="6"/>
+      <c r="D180" s="5"/>
       <c r="G180" s="3"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -3115,7 +3161,7 @@
       <c r="A181" s="3"/>
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="6"/>
+      <c r="D181" s="5"/>
       <c r="G181" s="3"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -3124,7 +3170,7 @@
       <c r="A182" s="3"/>
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="6"/>
+      <c r="D182" s="5"/>
       <c r="G182" s="3"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -3133,7 +3179,7 @@
       <c r="A183" s="3"/>
       <c r="B183" s="1"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="6"/>
+      <c r="D183" s="5"/>
       <c r="G183" s="3"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -3142,7 +3188,7 @@
       <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="6"/>
+      <c r="D184" s="5"/>
       <c r="G184" s="3"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -3151,7 +3197,7 @@
       <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="6"/>
+      <c r="D185" s="5"/>
       <c r="G185" s="3"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -3160,7 +3206,7 @@
       <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="6"/>
+      <c r="D186" s="5"/>
       <c r="G186" s="3"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -3169,7 +3215,7 @@
       <c r="A187" s="3"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="6"/>
+      <c r="D187" s="5"/>
       <c r="G187" s="3"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -3178,7 +3224,7 @@
       <c r="A188" s="3"/>
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="6"/>
+      <c r="D188" s="5"/>
       <c r="G188" s="3"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -3187,7 +3233,7 @@
       <c r="A189" s="3"/>
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="6"/>
+      <c r="D189" s="5"/>
       <c r="G189" s="3"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -3196,7 +3242,7 @@
       <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="6"/>
+      <c r="D190" s="5"/>
       <c r="G190" s="3"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -3205,7 +3251,7 @@
       <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="6"/>
+      <c r="D191" s="5"/>
       <c r="G191" s="3"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -3214,7 +3260,7 @@
       <c r="A192" s="3"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="6"/>
+      <c r="D192" s="5"/>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -3223,7 +3269,7 @@
       <c r="A193" s="3"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="6"/>
+      <c r="D193" s="5"/>
       <c r="G193" s="3"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -3232,7 +3278,7 @@
       <c r="A194" s="3"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="6"/>
+      <c r="D194" s="5"/>
       <c r="G194" s="3"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -3241,7 +3287,7 @@
       <c r="A195" s="3"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="6"/>
+      <c r="D195" s="5"/>
       <c r="G195" s="3"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -3250,7 +3296,7 @@
       <c r="A196" s="3"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="6"/>
+      <c r="D196" s="5"/>
       <c r="G196" s="3"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -3259,7 +3305,7 @@
       <c r="A197" s="3"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="6"/>
+      <c r="D197" s="5"/>
       <c r="G197" s="3"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -3268,7 +3314,7 @@
       <c r="A198" s="3"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="6"/>
+      <c r="D198" s="5"/>
       <c r="G198" s="3"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -3277,7 +3323,7 @@
       <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="6"/>
+      <c r="D199" s="5"/>
       <c r="G199" s="3"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -3286,7 +3332,7 @@
       <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="6"/>
+      <c r="D200" s="5"/>
       <c r="G200" s="3"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -3295,7 +3341,7 @@
       <c r="A201" s="3"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="6"/>
+      <c r="D201" s="5"/>
       <c r="G201" s="3"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -3304,7 +3350,7 @@
       <c r="A202" s="3"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="6"/>
+      <c r="D202" s="5"/>
       <c r="G202" s="3"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -3313,7 +3359,7 @@
       <c r="A203" s="3"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="6"/>
+      <c r="D203" s="5"/>
       <c r="G203" s="3"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -3322,7 +3368,7 @@
       <c r="A204" s="3"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="6"/>
+      <c r="D204" s="5"/>
       <c r="G204" s="3"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -3331,7 +3377,7 @@
       <c r="A205" s="3"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="6"/>
+      <c r="D205" s="5"/>
       <c r="G205" s="3"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -3340,7 +3386,7 @@
       <c r="A206" s="3"/>
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="6"/>
+      <c r="D206" s="5"/>
       <c r="G206" s="3"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -3349,7 +3395,7 @@
       <c r="A207" s="3"/>
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="6"/>
+      <c r="D207" s="5"/>
       <c r="G207" s="3"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -3358,7 +3404,7 @@
       <c r="A208" s="3"/>
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="6"/>
+      <c r="D208" s="5"/>
       <c r="G208" s="3"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -3367,7 +3413,7 @@
       <c r="A209" s="3"/>
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="6"/>
+      <c r="D209" s="5"/>
       <c r="G209" s="3"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -3376,7 +3422,7 @@
       <c r="A210" s="3"/>
       <c r="B210" s="1"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="6"/>
+      <c r="D210" s="5"/>
       <c r="G210" s="3"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -3385,7 +3431,7 @@
       <c r="A211" s="3"/>
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="6"/>
+      <c r="D211" s="5"/>
       <c r="G211" s="3"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -3394,7 +3440,7 @@
       <c r="A212" s="3"/>
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="6"/>
+      <c r="D212" s="5"/>
       <c r="G212" s="3"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -3403,7 +3449,7 @@
       <c r="A213" s="3"/>
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="6"/>
+      <c r="D213" s="5"/>
       <c r="G213" s="3"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -3412,7 +3458,7 @@
       <c r="A214" s="3"/>
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="6"/>
+      <c r="D214" s="5"/>
       <c r="G214" s="3"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -3421,7 +3467,7 @@
       <c r="A215" s="3"/>
       <c r="B215" s="1"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="6"/>
+      <c r="D215" s="5"/>
       <c r="G215" s="3"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -3430,7 +3476,7 @@
       <c r="A216" s="3"/>
       <c r="B216" s="1"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="6"/>
+      <c r="D216" s="5"/>
       <c r="G216" s="3"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -3439,7 +3485,7 @@
       <c r="A217" s="3"/>
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="6"/>
+      <c r="D217" s="5"/>
       <c r="G217" s="3"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -3448,7 +3494,7 @@
       <c r="A218" s="3"/>
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="6"/>
+      <c r="D218" s="5"/>
       <c r="G218" s="3"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -3457,7 +3503,7 @@
       <c r="A219" s="3"/>
       <c r="B219" s="1"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="6"/>
+      <c r="D219" s="5"/>
       <c r="G219" s="3"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -3466,7 +3512,7 @@
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="6"/>
+      <c r="D220" s="5"/>
       <c r="G220" s="3"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -3475,7 +3521,7 @@
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="6"/>
+      <c r="D221" s="5"/>
       <c r="G221" s="3"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -3484,7 +3530,7 @@
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="6"/>
+      <c r="D222" s="5"/>
       <c r="G222" s="3"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -3493,7 +3539,7 @@
       <c r="A223" s="3"/>
       <c r="B223" s="1"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="6"/>
+      <c r="D223" s="5"/>
       <c r="G223" s="3"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -3502,7 +3548,7 @@
       <c r="A224" s="3"/>
       <c r="B224" s="1"/>
       <c r="C224" s="2"/>
-      <c r="D224" s="6"/>
+      <c r="D224" s="5"/>
       <c r="G224" s="3"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -3511,7 +3557,7 @@
       <c r="A225" s="3"/>
       <c r="B225" s="1"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="6"/>
+      <c r="D225" s="5"/>
       <c r="G225" s="3"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -3520,7 +3566,7 @@
       <c r="A226" s="3"/>
       <c r="B226" s="1"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="6"/>
+      <c r="D226" s="5"/>
       <c r="G226" s="3"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -3529,7 +3575,7 @@
       <c r="A227" s="3"/>
       <c r="B227" s="1"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="6"/>
+      <c r="D227" s="5"/>
       <c r="G227" s="3"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -3538,7 +3584,7 @@
       <c r="A228" s="3"/>
       <c r="B228" s="1"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="6"/>
+      <c r="D228" s="5"/>
       <c r="G228" s="3"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -3547,7 +3593,7 @@
       <c r="A229" s="3"/>
       <c r="B229" s="1"/>
       <c r="C229" s="2"/>
-      <c r="D229" s="6"/>
+      <c r="D229" s="5"/>
       <c r="G229" s="3"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -3556,7 +3602,7 @@
       <c r="A230" s="3"/>
       <c r="B230" s="1"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="6"/>
+      <c r="D230" s="5"/>
       <c r="G230" s="3"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -3565,7 +3611,7 @@
       <c r="A231" s="3"/>
       <c r="B231" s="1"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="6"/>
+      <c r="D231" s="5"/>
       <c r="G231" s="3"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -3574,7 +3620,7 @@
       <c r="A232" s="3"/>
       <c r="B232" s="1"/>
       <c r="C232" s="2"/>
-      <c r="D232" s="6"/>
+      <c r="D232" s="5"/>
       <c r="G232" s="3"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -3583,7 +3629,7 @@
       <c r="A233" s="3"/>
       <c r="B233" s="1"/>
       <c r="C233" s="2"/>
-      <c r="D233" s="6"/>
+      <c r="D233" s="5"/>
       <c r="G233" s="3"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -3592,7 +3638,7 @@
       <c r="A234" s="3"/>
       <c r="B234" s="1"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="6"/>
+      <c r="D234" s="5"/>
       <c r="G234" s="3"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -3601,7 +3647,7 @@
       <c r="A235" s="3"/>
       <c r="B235" s="1"/>
       <c r="C235" s="2"/>
-      <c r="D235" s="6"/>
+      <c r="D235" s="5"/>
       <c r="G235" s="3"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -3610,7 +3656,7 @@
       <c r="A236" s="3"/>
       <c r="B236" s="1"/>
       <c r="C236" s="2"/>
-      <c r="D236" s="6"/>
+      <c r="D236" s="5"/>
       <c r="G236" s="3"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -3619,7 +3665,7 @@
       <c r="A237" s="3"/>
       <c r="B237" s="1"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="6"/>
+      <c r="D237" s="5"/>
       <c r="G237" s="3"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -3628,7 +3674,7 @@
       <c r="A238" s="3"/>
       <c r="B238" s="1"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="6"/>
+      <c r="D238" s="5"/>
       <c r="G238" s="3"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -3637,7 +3683,7 @@
       <c r="A239" s="3"/>
       <c r="B239" s="1"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="6"/>
+      <c r="D239" s="5"/>
       <c r="G239" s="3"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -3646,7 +3692,7 @@
       <c r="A240" s="3"/>
       <c r="B240" s="1"/>
       <c r="C240" s="2"/>
-      <c r="D240" s="6"/>
+      <c r="D240" s="5"/>
       <c r="G240" s="3"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -3655,7 +3701,7 @@
       <c r="A241" s="3"/>
       <c r="B241" s="1"/>
       <c r="C241" s="2"/>
-      <c r="D241" s="6"/>
+      <c r="D241" s="5"/>
       <c r="G241" s="3"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -3664,7 +3710,7 @@
       <c r="A242" s="3"/>
       <c r="B242" s="1"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="6"/>
+      <c r="D242" s="5"/>
       <c r="G242" s="3"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -3673,7 +3719,7 @@
       <c r="A243" s="3"/>
       <c r="B243" s="1"/>
       <c r="C243" s="2"/>
-      <c r="D243" s="6"/>
+      <c r="D243" s="5"/>
       <c r="G243" s="3"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -3682,7 +3728,7 @@
       <c r="A244" s="3"/>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="6"/>
+      <c r="D244" s="5"/>
       <c r="G244" s="3"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -3691,7 +3737,7 @@
       <c r="A245" s="3"/>
       <c r="B245" s="1"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="6"/>
+      <c r="D245" s="5"/>
       <c r="G245" s="3"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -3700,7 +3746,7 @@
       <c r="A246" s="3"/>
       <c r="B246" s="1"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="6"/>
+      <c r="D246" s="5"/>
       <c r="G246" s="3"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -3709,7 +3755,7 @@
       <c r="A247" s="3"/>
       <c r="B247" s="1"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="6"/>
+      <c r="D247" s="5"/>
       <c r="G247" s="3"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -3718,7 +3764,7 @@
       <c r="A248" s="3"/>
       <c r="B248" s="1"/>
       <c r="C248" s="2"/>
-      <c r="D248" s="6"/>
+      <c r="D248" s="5"/>
       <c r="G248" s="3"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -3727,7 +3773,7 @@
       <c r="A249" s="3"/>
       <c r="B249" s="1"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="6"/>
+      <c r="D249" s="5"/>
       <c r="G249" s="3"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -3736,7 +3782,7 @@
       <c r="A250" s="3"/>
       <c r="B250" s="1"/>
       <c r="C250" s="2"/>
-      <c r="D250" s="6"/>
+      <c r="D250" s="5"/>
       <c r="G250" s="3"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -3745,7 +3791,7 @@
       <c r="A251" s="3"/>
       <c r="B251" s="1"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="6"/>
+      <c r="D251" s="5"/>
       <c r="G251" s="3"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -3754,7 +3800,7 @@
       <c r="A252" s="3"/>
       <c r="B252" s="1"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="6"/>
+      <c r="D252" s="5"/>
       <c r="G252" s="3"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -3763,7 +3809,7 @@
       <c r="A253" s="3"/>
       <c r="B253" s="1"/>
       <c r="C253" s="2"/>
-      <c r="D253" s="6"/>
+      <c r="D253" s="5"/>
       <c r="G253" s="3"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -3772,7 +3818,7 @@
       <c r="A254" s="3"/>
       <c r="B254" s="1"/>
       <c r="C254" s="2"/>
-      <c r="D254" s="6"/>
+      <c r="D254" s="5"/>
       <c r="G254" s="3"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -3781,7 +3827,7 @@
       <c r="A255" s="3"/>
       <c r="B255" s="1"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="6"/>
+      <c r="D255" s="5"/>
       <c r="G255" s="3"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -3790,7 +3836,7 @@
       <c r="A256" s="3"/>
       <c r="B256" s="1"/>
       <c r="C256" s="2"/>
-      <c r="D256" s="6"/>
+      <c r="D256" s="5"/>
       <c r="G256" s="3"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -3799,7 +3845,7 @@
       <c r="A257" s="3"/>
       <c r="B257" s="1"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="6"/>
+      <c r="D257" s="5"/>
       <c r="G257" s="3"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -3808,7 +3854,7 @@
       <c r="A258" s="3"/>
       <c r="B258" s="1"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="6"/>
+      <c r="D258" s="5"/>
       <c r="G258" s="3"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -3817,7 +3863,7 @@
       <c r="A259" s="3"/>
       <c r="B259" s="1"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="6"/>
+      <c r="D259" s="5"/>
       <c r="G259" s="3"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -3826,7 +3872,7 @@
       <c r="A260" s="3"/>
       <c r="B260" s="1"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="6"/>
+      <c r="D260" s="5"/>
       <c r="G260" s="3"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -3835,7 +3881,7 @@
       <c r="A261" s="3"/>
       <c r="B261" s="1"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="6"/>
+      <c r="D261" s="5"/>
       <c r="G261" s="3"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
@@ -3844,7 +3890,7 @@
       <c r="A262" s="3"/>
       <c r="B262" s="1"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="6"/>
+      <c r="D262" s="5"/>
       <c r="G262" s="3"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
@@ -3853,7 +3899,7 @@
       <c r="A263" s="3"/>
       <c r="B263" s="1"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="6"/>
+      <c r="D263" s="5"/>
       <c r="G263" s="3"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -3862,7 +3908,7 @@
       <c r="A264" s="3"/>
       <c r="B264" s="1"/>
       <c r="C264" s="2"/>
-      <c r="D264" s="6"/>
+      <c r="D264" s="5"/>
       <c r="G264" s="3"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -3871,7 +3917,7 @@
       <c r="A265" s="3"/>
       <c r="B265" s="1"/>
       <c r="C265" s="2"/>
-      <c r="D265" s="6"/>
+      <c r="D265" s="5"/>
       <c r="G265" s="3"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -3880,7 +3926,7 @@
       <c r="A266" s="3"/>
       <c r="B266" s="1"/>
       <c r="C266" s="2"/>
-      <c r="D266" s="6"/>
+      <c r="D266" s="5"/>
       <c r="G266" s="3"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -3889,7 +3935,7 @@
       <c r="A267" s="3"/>
       <c r="B267" s="1"/>
       <c r="C267" s="2"/>
-      <c r="D267" s="6"/>
+      <c r="D267" s="5"/>
       <c r="G267" s="3"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -3898,7 +3944,7 @@
       <c r="A268" s="3"/>
       <c r="B268" s="1"/>
       <c r="C268" s="2"/>
-      <c r="D268" s="6"/>
+      <c r="D268" s="5"/>
       <c r="G268" s="3"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -3907,7 +3953,7 @@
       <c r="A269" s="3"/>
       <c r="B269" s="1"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="6"/>
+      <c r="D269" s="5"/>
       <c r="G269" s="3"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -3916,7 +3962,7 @@
       <c r="A270" s="3"/>
       <c r="B270" s="1"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="6"/>
+      <c r="D270" s="5"/>
       <c r="G270" s="3"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -3925,7 +3971,7 @@
       <c r="A271" s="3"/>
       <c r="B271" s="1"/>
       <c r="C271" s="2"/>
-      <c r="D271" s="6"/>
+      <c r="D271" s="5"/>
       <c r="G271" s="3"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -3934,7 +3980,7 @@
       <c r="A272" s="3"/>
       <c r="B272" s="1"/>
       <c r="C272" s="2"/>
-      <c r="D272" s="6"/>
+      <c r="D272" s="5"/>
       <c r="G272" s="3"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -3943,7 +3989,7 @@
       <c r="A273" s="3"/>
       <c r="B273" s="1"/>
       <c r="C273" s="2"/>
-      <c r="D273" s="6"/>
+      <c r="D273" s="5"/>
       <c r="G273" s="3"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -3952,7 +3998,7 @@
       <c r="A274" s="3"/>
       <c r="B274" s="1"/>
       <c r="C274" s="2"/>
-      <c r="D274" s="6"/>
+      <c r="D274" s="5"/>
       <c r="G274" s="3"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
@@ -3961,7 +4007,7 @@
       <c r="A275" s="3"/>
       <c r="B275" s="1"/>
       <c r="C275" s="2"/>
-      <c r="D275" s="6"/>
+      <c r="D275" s="5"/>
       <c r="G275" s="3"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
@@ -3970,7 +4016,7 @@
       <c r="A276" s="3"/>
       <c r="B276" s="1"/>
       <c r="C276" s="2"/>
-      <c r="D276" s="6"/>
+      <c r="D276" s="5"/>
       <c r="G276" s="3"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
@@ -3979,7 +4025,7 @@
       <c r="A277" s="3"/>
       <c r="B277" s="1"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="6"/>
+      <c r="D277" s="5"/>
       <c r="G277" s="3"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
@@ -3988,7 +4034,7 @@
       <c r="A278" s="3"/>
       <c r="B278" s="1"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="6"/>
+      <c r="D278" s="5"/>
       <c r="G278" s="3"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
@@ -3997,7 +4043,7 @@
       <c r="A279" s="3"/>
       <c r="B279" s="1"/>
       <c r="C279" s="2"/>
-      <c r="D279" s="6"/>
+      <c r="D279" s="5"/>
       <c r="G279" s="3"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
@@ -4006,7 +4052,7 @@
       <c r="A280" s="3"/>
       <c r="B280" s="1"/>
       <c r="C280" s="2"/>
-      <c r="D280" s="6"/>
+      <c r="D280" s="5"/>
       <c r="G280" s="3"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
@@ -4015,7 +4061,7 @@
       <c r="A281" s="3"/>
       <c r="B281" s="1"/>
       <c r="C281" s="2"/>
-      <c r="D281" s="6"/>
+      <c r="D281" s="5"/>
       <c r="G281" s="3"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
@@ -4024,7 +4070,7 @@
       <c r="A282" s="3"/>
       <c r="B282" s="1"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="6"/>
+      <c r="D282" s="5"/>
       <c r="G282" s="3"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
@@ -4033,7 +4079,7 @@
       <c r="A283" s="3"/>
       <c r="B283" s="1"/>
       <c r="C283" s="2"/>
-      <c r="D283" s="6"/>
+      <c r="D283" s="5"/>
       <c r="G283" s="3"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
@@ -4042,7 +4088,7 @@
       <c r="A284" s="3"/>
       <c r="B284" s="1"/>
       <c r="C284" s="2"/>
-      <c r="D284" s="6"/>
+      <c r="D284" s="5"/>
       <c r="G284" s="3"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
@@ -4051,7 +4097,7 @@
       <c r="A285" s="3"/>
       <c r="B285" s="1"/>
       <c r="C285" s="2"/>
-      <c r="D285" s="6"/>
+      <c r="D285" s="5"/>
       <c r="G285" s="3"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
@@ -4060,7 +4106,7 @@
       <c r="A286" s="3"/>
       <c r="B286" s="1"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="6"/>
+      <c r="D286" s="5"/>
       <c r="G286" s="3"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
@@ -4069,7 +4115,7 @@
       <c r="A287" s="3"/>
       <c r="B287" s="1"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="6"/>
+      <c r="D287" s="5"/>
       <c r="G287" s="3"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
@@ -4078,7 +4124,7 @@
       <c r="A288" s="3"/>
       <c r="B288" s="1"/>
       <c r="C288" s="2"/>
-      <c r="D288" s="6"/>
+      <c r="D288" s="5"/>
       <c r="G288" s="3"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
@@ -4087,7 +4133,7 @@
       <c r="A289" s="3"/>
       <c r="B289" s="1"/>
       <c r="C289" s="2"/>
-      <c r="D289" s="6"/>
+      <c r="D289" s="5"/>
       <c r="G289" s="3"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
@@ -4096,7 +4142,7 @@
       <c r="A290" s="3"/>
       <c r="B290" s="1"/>
       <c r="C290" s="2"/>
-      <c r="D290" s="6"/>
+      <c r="D290" s="5"/>
       <c r="G290" s="3"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
@@ -4105,7 +4151,7 @@
       <c r="A291" s="3"/>
       <c r="B291" s="1"/>
       <c r="C291" s="2"/>
-      <c r="D291" s="6"/>
+      <c r="D291" s="5"/>
       <c r="G291" s="3"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
@@ -4114,7 +4160,7 @@
       <c r="A292" s="3"/>
       <c r="B292" s="1"/>
       <c r="C292" s="2"/>
-      <c r="D292" s="6"/>
+      <c r="D292" s="5"/>
       <c r="G292" s="3"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -4123,7 +4169,7 @@
       <c r="A293" s="3"/>
       <c r="B293" s="1"/>
       <c r="C293" s="2"/>
-      <c r="D293" s="6"/>
+      <c r="D293" s="5"/>
       <c r="G293" s="3"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -4132,7 +4178,7 @@
       <c r="A294" s="3"/>
       <c r="B294" s="1"/>
       <c r="C294" s="2"/>
-      <c r="D294" s="6"/>
+      <c r="D294" s="5"/>
       <c r="G294" s="3"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -4141,7 +4187,7 @@
       <c r="A295" s="3"/>
       <c r="B295" s="1"/>
       <c r="C295" s="2"/>
-      <c r="D295" s="6"/>
+      <c r="D295" s="5"/>
       <c r="G295" s="3"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -4150,7 +4196,7 @@
       <c r="A296" s="3"/>
       <c r="B296" s="1"/>
       <c r="C296" s="2"/>
-      <c r="D296" s="6"/>
+      <c r="D296" s="5"/>
       <c r="G296" s="3"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -4159,7 +4205,7 @@
       <c r="A297" s="3"/>
       <c r="B297" s="1"/>
       <c r="C297" s="2"/>
-      <c r="D297" s="6"/>
+      <c r="D297" s="5"/>
       <c r="G297" s="3"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -4168,7 +4214,7 @@
       <c r="A298" s="3"/>
       <c r="B298" s="1"/>
       <c r="C298" s="2"/>
-      <c r="D298" s="6"/>
+      <c r="D298" s="5"/>
       <c r="G298" s="3"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -4177,7 +4223,7 @@
       <c r="A299" s="3"/>
       <c r="B299" s="1"/>
       <c r="C299" s="2"/>
-      <c r="D299" s="6"/>
+      <c r="D299" s="5"/>
       <c r="G299" s="3"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -4186,7 +4232,7 @@
       <c r="A300" s="3"/>
       <c r="B300" s="1"/>
       <c r="C300" s="2"/>
-      <c r="D300" s="6"/>
+      <c r="D300" s="5"/>
       <c r="G300" s="3"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -4195,7 +4241,7 @@
       <c r="A301" s="3"/>
       <c r="B301" s="1"/>
       <c r="C301" s="2"/>
-      <c r="D301" s="6"/>
+      <c r="D301" s="5"/>
       <c r="G301" s="3"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -4204,7 +4250,7 @@
       <c r="A302" s="3"/>
       <c r="B302" s="1"/>
       <c r="C302" s="2"/>
-      <c r="D302" s="6"/>
+      <c r="D302" s="5"/>
       <c r="G302" s="3"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -4213,7 +4259,7 @@
       <c r="A303" s="3"/>
       <c r="B303" s="1"/>
       <c r="C303" s="2"/>
-      <c r="D303" s="6"/>
+      <c r="D303" s="5"/>
       <c r="G303" s="3"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
@@ -4222,7 +4268,7 @@
       <c r="A304" s="3"/>
       <c r="B304" s="1"/>
       <c r="C304" s="2"/>
-      <c r="D304" s="6"/>
+      <c r="D304" s="5"/>
       <c r="G304" s="3"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
@@ -4231,7 +4277,7 @@
       <c r="A305" s="3"/>
       <c r="B305" s="1"/>
       <c r="C305" s="2"/>
-      <c r="D305" s="6"/>
+      <c r="D305" s="5"/>
       <c r="G305" s="3"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
@@ -4240,7 +4286,7 @@
       <c r="A306" s="3"/>
       <c r="B306" s="1"/>
       <c r="C306" s="2"/>
-      <c r="D306" s="6"/>
+      <c r="D306" s="5"/>
       <c r="G306" s="3"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
@@ -4249,7 +4295,7 @@
       <c r="A307" s="3"/>
       <c r="B307" s="1"/>
       <c r="C307" s="2"/>
-      <c r="D307" s="6"/>
+      <c r="D307" s="5"/>
       <c r="G307" s="3"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
@@ -4258,7 +4304,7 @@
       <c r="A308" s="3"/>
       <c r="B308" s="1"/>
       <c r="C308" s="2"/>
-      <c r="D308" s="6"/>
+      <c r="D308" s="5"/>
       <c r="G308" s="3"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
@@ -4267,7 +4313,7 @@
       <c r="A309" s="3"/>
       <c r="B309" s="1"/>
       <c r="C309" s="2"/>
-      <c r="D309" s="6"/>
+      <c r="D309" s="5"/>
       <c r="G309" s="3"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
@@ -4276,7 +4322,7 @@
       <c r="A310" s="3"/>
       <c r="B310" s="1"/>
       <c r="C310" s="2"/>
-      <c r="D310" s="6"/>
+      <c r="D310" s="5"/>
       <c r="G310" s="3"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
@@ -4285,7 +4331,7 @@
       <c r="A311" s="3"/>
       <c r="B311" s="1"/>
       <c r="C311" s="2"/>
-      <c r="D311" s="6"/>
+      <c r="D311" s="5"/>
       <c r="G311" s="3"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
@@ -4294,7 +4340,7 @@
       <c r="A312" s="3"/>
       <c r="B312" s="1"/>
       <c r="C312" s="2"/>
-      <c r="D312" s="6"/>
+      <c r="D312" s="5"/>
       <c r="G312" s="3"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
@@ -4303,7 +4349,7 @@
       <c r="A313" s="3"/>
       <c r="B313" s="1"/>
       <c r="C313" s="2"/>
-      <c r="D313" s="6"/>
+      <c r="D313" s="5"/>
       <c r="G313" s="3"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -4312,7 +4358,7 @@
       <c r="A314" s="3"/>
       <c r="B314" s="1"/>
       <c r="C314" s="2"/>
-      <c r="D314" s="6"/>
+      <c r="D314" s="5"/>
       <c r="G314" s="3"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
@@ -4321,7 +4367,7 @@
       <c r="A315" s="3"/>
       <c r="B315" s="1"/>
       <c r="C315" s="2"/>
-      <c r="D315" s="6"/>
+      <c r="D315" s="5"/>
       <c r="G315" s="3"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
@@ -4330,7 +4376,7 @@
       <c r="A316" s="3"/>
       <c r="B316" s="1"/>
       <c r="C316" s="2"/>
-      <c r="D316" s="6"/>
+      <c r="D316" s="5"/>
       <c r="G316" s="3"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
@@ -4339,7 +4385,7 @@
       <c r="A317" s="3"/>
       <c r="B317" s="1"/>
       <c r="C317" s="2"/>
-      <c r="D317" s="6"/>
+      <c r="D317" s="5"/>
       <c r="G317" s="3"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
@@ -4348,7 +4394,7 @@
       <c r="A318" s="3"/>
       <c r="B318" s="1"/>
       <c r="C318" s="2"/>
-      <c r="D318" s="6"/>
+      <c r="D318" s="5"/>
       <c r="G318" s="3"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
@@ -4357,7 +4403,7 @@
       <c r="A319" s="3"/>
       <c r="B319" s="1"/>
       <c r="C319" s="2"/>
-      <c r="D319" s="6"/>
+      <c r="D319" s="5"/>
       <c r="G319" s="3"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
@@ -4366,7 +4412,7 @@
       <c r="A320" s="3"/>
       <c r="B320" s="1"/>
       <c r="C320" s="2"/>
-      <c r="D320" s="6"/>
+      <c r="D320" s="5"/>
       <c r="G320" s="3"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
@@ -4375,7 +4421,7 @@
       <c r="A321" s="3"/>
       <c r="B321" s="1"/>
       <c r="C321" s="2"/>
-      <c r="D321" s="6"/>
+      <c r="D321" s="5"/>
       <c r="G321" s="3"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -4384,7 +4430,7 @@
       <c r="A322" s="3"/>
       <c r="B322" s="1"/>
       <c r="C322" s="2"/>
-      <c r="D322" s="6"/>
+      <c r="D322" s="5"/>
       <c r="G322" s="3"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -4393,7 +4439,7 @@
       <c r="A323" s="3"/>
       <c r="B323" s="1"/>
       <c r="C323" s="2"/>
-      <c r="D323" s="6"/>
+      <c r="D323" s="5"/>
       <c r="G323" s="3"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -4402,7 +4448,7 @@
       <c r="A324" s="3"/>
       <c r="B324" s="1"/>
       <c r="C324" s="2"/>
-      <c r="D324" s="6"/>
+      <c r="D324" s="5"/>
       <c r="G324" s="3"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -4411,7 +4457,7 @@
       <c r="A325" s="3"/>
       <c r="B325" s="1"/>
       <c r="C325" s="2"/>
-      <c r="D325" s="6"/>
+      <c r="D325" s="5"/>
       <c r="G325" s="3"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -4420,7 +4466,7 @@
       <c r="A326" s="3"/>
       <c r="B326" s="1"/>
       <c r="C326" s="2"/>
-      <c r="D326" s="6"/>
+      <c r="D326" s="5"/>
       <c r="G326" s="3"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -4429,7 +4475,7 @@
       <c r="A327" s="3"/>
       <c r="B327" s="1"/>
       <c r="C327" s="2"/>
-      <c r="D327" s="6"/>
+      <c r="D327" s="5"/>
       <c r="G327" s="3"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -4438,7 +4484,7 @@
       <c r="A328" s="3"/>
       <c r="B328" s="1"/>
       <c r="C328" s="2"/>
-      <c r="D328" s="6"/>
+      <c r="D328" s="5"/>
       <c r="G328" s="3"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -4447,7 +4493,7 @@
       <c r="A329" s="3"/>
       <c r="B329" s="1"/>
       <c r="C329" s="2"/>
-      <c r="D329" s="6"/>
+      <c r="D329" s="5"/>
       <c r="G329" s="3"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -4456,7 +4502,7 @@
       <c r="A330" s="3"/>
       <c r="B330" s="1"/>
       <c r="C330" s="2"/>
-      <c r="D330" s="6"/>
+      <c r="D330" s="5"/>
       <c r="G330" s="3"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -4465,7 +4511,7 @@
       <c r="A331" s="3"/>
       <c r="B331" s="1"/>
       <c r="C331" s="2"/>
-      <c r="D331" s="6"/>
+      <c r="D331" s="5"/>
       <c r="G331" s="3"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -4474,7 +4520,7 @@
       <c r="A332" s="3"/>
       <c r="B332" s="1"/>
       <c r="C332" s="2"/>
-      <c r="D332" s="6"/>
+      <c r="D332" s="5"/>
       <c r="G332" s="3"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
@@ -4483,7 +4529,7 @@
       <c r="A333" s="3"/>
       <c r="B333" s="1"/>
       <c r="C333" s="2"/>
-      <c r="D333" s="6"/>
+      <c r="D333" s="5"/>
       <c r="G333" s="3"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
@@ -4492,7 +4538,7 @@
       <c r="A334" s="3"/>
       <c r="B334" s="1"/>
       <c r="C334" s="2"/>
-      <c r="D334" s="6"/>
+      <c r="D334" s="5"/>
       <c r="G334" s="3"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
@@ -4501,7 +4547,7 @@
       <c r="A335" s="3"/>
       <c r="B335" s="1"/>
       <c r="C335" s="2"/>
-      <c r="D335" s="6"/>
+      <c r="D335" s="5"/>
       <c r="G335" s="3"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
@@ -4510,7 +4556,7 @@
       <c r="A336" s="3"/>
       <c r="B336" s="1"/>
       <c r="C336" s="2"/>
-      <c r="D336" s="6"/>
+      <c r="D336" s="5"/>
       <c r="G336" s="3"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
@@ -4519,7 +4565,7 @@
       <c r="A337" s="3"/>
       <c r="B337" s="1"/>
       <c r="C337" s="2"/>
-      <c r="D337" s="6"/>
+      <c r="D337" s="5"/>
       <c r="G337" s="3"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
@@ -4528,7 +4574,7 @@
       <c r="A338" s="3"/>
       <c r="B338" s="1"/>
       <c r="C338" s="2"/>
-      <c r="D338" s="6"/>
+      <c r="D338" s="5"/>
       <c r="G338" s="3"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
@@ -4537,7 +4583,7 @@
       <c r="A339" s="3"/>
       <c r="B339" s="1"/>
       <c r="C339" s="2"/>
-      <c r="D339" s="6"/>
+      <c r="D339" s="5"/>
       <c r="G339" s="3"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
@@ -4546,7 +4592,7 @@
       <c r="A340" s="3"/>
       <c r="B340" s="1"/>
       <c r="C340" s="2"/>
-      <c r="D340" s="6"/>
+      <c r="D340" s="5"/>
       <c r="G340" s="3"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
@@ -4555,7 +4601,7 @@
       <c r="A341" s="3"/>
       <c r="B341" s="1"/>
       <c r="C341" s="2"/>
-      <c r="D341" s="6"/>
+      <c r="D341" s="5"/>
       <c r="G341" s="3"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
@@ -4564,7 +4610,7 @@
       <c r="A342" s="3"/>
       <c r="B342" s="1"/>
       <c r="C342" s="2"/>
-      <c r="D342" s="6"/>
+      <c r="D342" s="5"/>
       <c r="G342" s="3"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
@@ -4573,7 +4619,7 @@
       <c r="A343" s="3"/>
       <c r="B343" s="1"/>
       <c r="C343" s="2"/>
-      <c r="D343" s="6"/>
+      <c r="D343" s="5"/>
       <c r="G343" s="3"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
@@ -4582,7 +4628,7 @@
       <c r="A344" s="3"/>
       <c r="B344" s="1"/>
       <c r="C344" s="2"/>
-      <c r="D344" s="6"/>
+      <c r="D344" s="5"/>
       <c r="G344" s="3"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
@@ -4591,7 +4637,7 @@
       <c r="A345" s="3"/>
       <c r="B345" s="1"/>
       <c r="C345" s="2"/>
-      <c r="D345" s="6"/>
+      <c r="D345" s="5"/>
       <c r="G345" s="3"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
@@ -4600,7 +4646,7 @@
       <c r="A346" s="3"/>
       <c r="B346" s="1"/>
       <c r="C346" s="2"/>
-      <c r="D346" s="6"/>
+      <c r="D346" s="5"/>
       <c r="G346" s="3"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
@@ -4609,7 +4655,7 @@
       <c r="A347" s="3"/>
       <c r="B347" s="1"/>
       <c r="C347" s="2"/>
-      <c r="D347" s="6"/>
+      <c r="D347" s="5"/>
       <c r="G347" s="3"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
@@ -4618,7 +4664,7 @@
       <c r="A348" s="3"/>
       <c r="B348" s="1"/>
       <c r="C348" s="2"/>
-      <c r="D348" s="6"/>
+      <c r="D348" s="5"/>
       <c r="G348" s="3"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
@@ -4627,7 +4673,7 @@
       <c r="A349" s="3"/>
       <c r="B349" s="1"/>
       <c r="C349" s="2"/>
-      <c r="D349" s="6"/>
+      <c r="D349" s="5"/>
       <c r="G349" s="3"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
@@ -4636,7 +4682,7 @@
       <c r="A350" s="3"/>
       <c r="B350" s="1"/>
       <c r="C350" s="2"/>
-      <c r="D350" s="6"/>
+      <c r="D350" s="5"/>
       <c r="G350" s="3"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -4645,7 +4691,7 @@
       <c r="A351" s="3"/>
       <c r="B351" s="1"/>
       <c r="C351" s="2"/>
-      <c r="D351" s="6"/>
+      <c r="D351" s="5"/>
       <c r="G351" s="3"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -4654,7 +4700,7 @@
       <c r="A352" s="3"/>
       <c r="B352" s="1"/>
       <c r="C352" s="2"/>
-      <c r="D352" s="6"/>
+      <c r="D352" s="5"/>
       <c r="G352" s="3"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -4663,7 +4709,7 @@
       <c r="A353" s="3"/>
       <c r="B353" s="1"/>
       <c r="C353" s="2"/>
-      <c r="D353" s="6"/>
+      <c r="D353" s="5"/>
       <c r="G353" s="3"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -4672,7 +4718,7 @@
       <c r="A354" s="3"/>
       <c r="B354" s="1"/>
       <c r="C354" s="2"/>
-      <c r="D354" s="6"/>
+      <c r="D354" s="5"/>
       <c r="G354" s="3"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -4681,7 +4727,7 @@
       <c r="A355" s="3"/>
       <c r="B355" s="1"/>
       <c r="C355" s="2"/>
-      <c r="D355" s="6"/>
+      <c r="D355" s="5"/>
       <c r="G355" s="3"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -4690,7 +4736,7 @@
       <c r="A356" s="3"/>
       <c r="B356" s="1"/>
       <c r="C356" s="2"/>
-      <c r="D356" s="6"/>
+      <c r="D356" s="5"/>
       <c r="G356" s="3"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -4699,7 +4745,7 @@
       <c r="A357" s="3"/>
       <c r="B357" s="1"/>
       <c r="C357" s="2"/>
-      <c r="D357" s="6"/>
+      <c r="D357" s="5"/>
       <c r="G357" s="3"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -4708,7 +4754,7 @@
       <c r="A358" s="3"/>
       <c r="B358" s="1"/>
       <c r="C358" s="2"/>
-      <c r="D358" s="6"/>
+      <c r="D358" s="5"/>
       <c r="G358" s="3"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -4717,7 +4763,7 @@
       <c r="A359" s="3"/>
       <c r="B359" s="1"/>
       <c r="C359" s="2"/>
-      <c r="D359" s="6"/>
+      <c r="D359" s="5"/>
       <c r="G359" s="3"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -4726,7 +4772,7 @@
       <c r="A360" s="3"/>
       <c r="B360" s="1"/>
       <c r="C360" s="2"/>
-      <c r="D360" s="6"/>
+      <c r="D360" s="5"/>
       <c r="G360" s="3"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -4735,7 +4781,7 @@
       <c r="A361" s="3"/>
       <c r="B361" s="1"/>
       <c r="C361" s="2"/>
-      <c r="D361" s="6"/>
+      <c r="D361" s="5"/>
       <c r="G361" s="3"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
@@ -4744,7 +4790,7 @@
       <c r="A362" s="3"/>
       <c r="B362" s="1"/>
       <c r="C362" s="2"/>
-      <c r="D362" s="6"/>
+      <c r="D362" s="5"/>
       <c r="G362" s="3"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
@@ -4753,7 +4799,7 @@
       <c r="A363" s="3"/>
       <c r="B363" s="1"/>
       <c r="C363" s="2"/>
-      <c r="D363" s="6"/>
+      <c r="D363" s="5"/>
       <c r="G363" s="3"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
@@ -4762,7 +4808,7 @@
       <c r="A364" s="3"/>
       <c r="B364" s="1"/>
       <c r="C364" s="2"/>
-      <c r="D364" s="6"/>
+      <c r="D364" s="5"/>
       <c r="G364" s="3"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
@@ -4771,7 +4817,7 @@
       <c r="A365" s="3"/>
       <c r="B365" s="1"/>
       <c r="C365" s="2"/>
-      <c r="D365" s="6"/>
+      <c r="D365" s="5"/>
       <c r="G365" s="3"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
@@ -4780,7 +4826,7 @@
       <c r="A366" s="3"/>
       <c r="B366" s="1"/>
       <c r="C366" s="2"/>
-      <c r="D366" s="6"/>
+      <c r="D366" s="5"/>
       <c r="G366" s="3"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
@@ -4789,7 +4835,7 @@
       <c r="A367" s="3"/>
       <c r="B367" s="1"/>
       <c r="C367" s="2"/>
-      <c r="D367" s="6"/>
+      <c r="D367" s="5"/>
       <c r="G367" s="3"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
@@ -4798,7 +4844,7 @@
       <c r="A368" s="3"/>
       <c r="B368" s="1"/>
       <c r="C368" s="2"/>
-      <c r="D368" s="6"/>
+      <c r="D368" s="5"/>
       <c r="G368" s="3"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
@@ -4807,7 +4853,7 @@
       <c r="A369" s="3"/>
       <c r="B369" s="1"/>
       <c r="C369" s="2"/>
-      <c r="D369" s="6"/>
+      <c r="D369" s="5"/>
       <c r="G369" s="3"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
@@ -4816,7 +4862,7 @@
       <c r="A370" s="3"/>
       <c r="B370" s="1"/>
       <c r="C370" s="2"/>
-      <c r="D370" s="6"/>
+      <c r="D370" s="5"/>
       <c r="G370" s="3"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
@@ -4825,7 +4871,7 @@
       <c r="A371" s="3"/>
       <c r="B371" s="1"/>
       <c r="C371" s="2"/>
-      <c r="D371" s="6"/>
+      <c r="D371" s="5"/>
       <c r="G371" s="3"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
@@ -4834,7 +4880,7 @@
       <c r="A372" s="3"/>
       <c r="B372" s="1"/>
       <c r="C372" s="2"/>
-      <c r="D372" s="6"/>
+      <c r="D372" s="5"/>
       <c r="G372" s="3"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
@@ -4843,7 +4889,7 @@
       <c r="A373" s="3"/>
       <c r="B373" s="1"/>
       <c r="C373" s="2"/>
-      <c r="D373" s="6"/>
+      <c r="D373" s="5"/>
       <c r="G373" s="3"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
@@ -4852,7 +4898,7 @@
       <c r="A374" s="3"/>
       <c r="B374" s="1"/>
       <c r="C374" s="2"/>
-      <c r="D374" s="6"/>
+      <c r="D374" s="5"/>
       <c r="G374" s="3"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
@@ -4861,7 +4907,7 @@
       <c r="A375" s="3"/>
       <c r="B375" s="1"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="6"/>
+      <c r="D375" s="5"/>
       <c r="G375" s="3"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
@@ -4870,7 +4916,7 @@
       <c r="A376" s="3"/>
       <c r="B376" s="1"/>
       <c r="C376" s="2"/>
-      <c r="D376" s="6"/>
+      <c r="D376" s="5"/>
       <c r="G376" s="3"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
@@ -4879,7 +4925,7 @@
       <c r="A377" s="3"/>
       <c r="B377" s="1"/>
       <c r="C377" s="2"/>
-      <c r="D377" s="6"/>
+      <c r="D377" s="5"/>
       <c r="G377" s="3"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
@@ -4888,7 +4934,7 @@
       <c r="A378" s="3"/>
       <c r="B378" s="1"/>
       <c r="C378" s="2"/>
-      <c r="D378" s="6"/>
+      <c r="D378" s="5"/>
       <c r="G378" s="3"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
@@ -4897,7 +4943,7 @@
       <c r="A379" s="3"/>
       <c r="B379" s="1"/>
       <c r="C379" s="2"/>
-      <c r="D379" s="6"/>
+      <c r="D379" s="5"/>
       <c r="G379" s="3"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -4906,7 +4952,7 @@
       <c r="A380" s="3"/>
       <c r="B380" s="1"/>
       <c r="C380" s="2"/>
-      <c r="D380" s="6"/>
+      <c r="D380" s="5"/>
       <c r="G380" s="3"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -4915,7 +4961,7 @@
       <c r="A381" s="3"/>
       <c r="B381" s="1"/>
       <c r="C381" s="2"/>
-      <c r="D381" s="6"/>
+      <c r="D381" s="5"/>
       <c r="G381" s="3"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -4924,7 +4970,7 @@
       <c r="A382" s="3"/>
       <c r="B382" s="1"/>
       <c r="C382" s="2"/>
-      <c r="D382" s="6"/>
+      <c r="D382" s="5"/>
       <c r="G382" s="3"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -4933,7 +4979,7 @@
       <c r="A383" s="3"/>
       <c r="B383" s="1"/>
       <c r="C383" s="2"/>
-      <c r="D383" s="6"/>
+      <c r="D383" s="5"/>
       <c r="G383" s="3"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -4942,7 +4988,7 @@
       <c r="A384" s="3"/>
       <c r="B384" s="1"/>
       <c r="C384" s="2"/>
-      <c r="D384" s="6"/>
+      <c r="D384" s="5"/>
       <c r="G384" s="3"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -4951,7 +4997,7 @@
       <c r="A385" s="3"/>
       <c r="B385" s="1"/>
       <c r="C385" s="2"/>
-      <c r="D385" s="6"/>
+      <c r="D385" s="5"/>
       <c r="G385" s="3"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -4960,7 +5006,7 @@
       <c r="A386" s="3"/>
       <c r="B386" s="1"/>
       <c r="C386" s="2"/>
-      <c r="D386" s="6"/>
+      <c r="D386" s="5"/>
       <c r="G386" s="3"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -4969,7 +5015,7 @@
       <c r="A387" s="3"/>
       <c r="B387" s="1"/>
       <c r="C387" s="2"/>
-      <c r="D387" s="6"/>
+      <c r="D387" s="5"/>
       <c r="G387" s="3"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -4978,7 +5024,7 @@
       <c r="A388" s="3"/>
       <c r="B388" s="1"/>
       <c r="C388" s="2"/>
-      <c r="D388" s="6"/>
+      <c r="D388" s="5"/>
       <c r="G388" s="3"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -4987,7 +5033,7 @@
       <c r="A389" s="3"/>
       <c r="B389" s="1"/>
       <c r="C389" s="2"/>
-      <c r="D389" s="6"/>
+      <c r="D389" s="5"/>
       <c r="G389" s="3"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -4996,7 +5042,7 @@
       <c r="A390" s="3"/>
       <c r="B390" s="1"/>
       <c r="C390" s="2"/>
-      <c r="D390" s="6"/>
+      <c r="D390" s="5"/>
       <c r="G390" s="3"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
@@ -5005,8 +5051,7 @@
       <c r="A391" s="3"/>
       <c r="B391" s="1"/>
       <c r="C391" s="2"/>
-      <c r="D391" s="6"/>
-      <c r="G391" s="3"/>
+      <c r="D391" s="5"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
     </row>
@@ -5014,8 +5059,7 @@
       <c r="A392" s="3"/>
       <c r="B392" s="1"/>
       <c r="C392" s="2"/>
-      <c r="D392" s="6"/>
-      <c r="G392" s="3"/>
+      <c r="D392" s="5"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
     </row>
@@ -5023,8 +5067,7 @@
       <c r="A393" s="3"/>
       <c r="B393" s="1"/>
       <c r="C393" s="2"/>
-      <c r="D393" s="6"/>
-      <c r="G393" s="3"/>
+      <c r="D393" s="5"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
     </row>
@@ -5032,8 +5075,7 @@
       <c r="A394" s="3"/>
       <c r="B394" s="1"/>
       <c r="C394" s="2"/>
-      <c r="D394" s="6"/>
-      <c r="G394" s="3"/>
+      <c r="D394" s="5"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
     </row>
@@ -5041,8 +5083,7 @@
       <c r="A395" s="3"/>
       <c r="B395" s="1"/>
       <c r="C395" s="2"/>
-      <c r="D395" s="6"/>
-      <c r="G395" s="3"/>
+      <c r="D395" s="5"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
     </row>
@@ -5050,19 +5091,19 @@
       <c r="A396" s="3"/>
       <c r="B396" s="1"/>
       <c r="C396" s="2"/>
-      <c r="D396" s="6"/>
+      <c r="D396" s="5"/>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="1"/>
       <c r="C397" s="2"/>
-      <c r="D397" s="6"/>
+      <c r="D397" s="5"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="1"/>
       <c r="C398" s="2"/>
-      <c r="D398" s="6"/>
+      <c r="D398" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D67" xr:uid="{ACAE433C-B29E-354A-9C80-1E84791695AA}">
@@ -5070,14 +5111,17 @@
       <sortCondition ref="C2:C67"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E40:F69">
+    <sortCondition ref="E40:E69"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D46" r:id="rId1" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-99" xr:uid="{2692B668-C512-AF4C-A3BC-F52BF743995B}"/>
-    <hyperlink ref="D50" r:id="rId2" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-90" xr:uid="{0F34F4C1-DBA2-5C4B-9565-9DB66B2F88F9}"/>
+    <hyperlink ref="D70" r:id="rId1" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-99" xr:uid="{2692B668-C512-AF4C-A3BC-F52BF743995B}"/>
+    <hyperlink ref="D68" r:id="rId2" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-90" xr:uid="{0F34F4C1-DBA2-5C4B-9565-9DB66B2F88F9}"/>
     <hyperlink ref="D41" r:id="rId3" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-103" xr:uid="{4ACD1A9F-9373-CB49-80C6-451F1BE567B6}"/>
-    <hyperlink ref="D42" r:id="rId4" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-109" xr:uid="{8FCFECC8-B8E6-D643-B61B-7A8D32394B6B}"/>
-    <hyperlink ref="D40" r:id="rId5" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-87" xr:uid="{D414A956-B3E9-4F49-AD25-3C7E219E04E5}"/>
-    <hyperlink ref="D43" r:id="rId6" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-104" xr:uid="{2F1C213A-CCF3-6D4C-84EA-35ABFE2801DF}"/>
-    <hyperlink ref="D45" r:id="rId7" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-60" xr:uid="{317AD7E5-C80B-8840-ADA1-E47EADF84F19}"/>
+    <hyperlink ref="D45" r:id="rId4" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-109" xr:uid="{8FCFECC8-B8E6-D643-B61B-7A8D32394B6B}"/>
+    <hyperlink ref="D67" r:id="rId5" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-87" xr:uid="{D414A956-B3E9-4F49-AD25-3C7E219E04E5}"/>
+    <hyperlink ref="D42" r:id="rId6" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-104" xr:uid="{2F1C213A-CCF3-6D4C-84EA-35ABFE2801DF}"/>
+    <hyperlink ref="D65" r:id="rId7" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-60" xr:uid="{317AD7E5-C80B-8840-ADA1-E47EADF84F19}"/>
     <hyperlink ref="D24" r:id="rId8" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-17" xr:uid="{ED4E2468-A12D-F045-83FB-36BF0D38C860}"/>
     <hyperlink ref="D19" r:id="rId9" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-22" xr:uid="{7FF19817-ED3B-F84F-AA90-067D9E4A9D75}"/>
     <hyperlink ref="D25" r:id="rId10" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-24" xr:uid="{661141F1-CF8A-A345-A570-F25C6FC1B1C6}"/>
@@ -5109,626 +5153,173 @@
     <hyperlink ref="D39" r:id="rId36" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-86" xr:uid="{D1E260FE-DEC0-7C48-A9BA-138FA61433B8}"/>
     <hyperlink ref="D36" r:id="rId37" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-87" xr:uid="{A7B3892E-4E97-9A45-9D1B-BFE45A577AC8}"/>
     <hyperlink ref="D18" r:id="rId38" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-9" xr:uid="{9D8ED3A4-B4CC-2E40-9285-D9C2BD10E642}"/>
-    <hyperlink ref="D55" r:id="rId39" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-94" xr:uid="{6BB9FCC5-8905-1E45-A3E0-55E510BDC12F}"/>
-    <hyperlink ref="D53" r:id="rId40" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-106" xr:uid="{4DF31065-A44E-0C43-B88D-A2706072514D}"/>
-    <hyperlink ref="D52" r:id="rId41" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-102" xr:uid="{A901FF5D-0035-7C4A-8376-2A9C68A1EFB8}"/>
-    <hyperlink ref="D51" r:id="rId42" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-119" xr:uid="{CBF9F757-C018-5746-BD8C-70EBAD78FD19}"/>
+    <hyperlink ref="D69" r:id="rId39" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-94" xr:uid="{6BB9FCC5-8905-1E45-A3E0-55E510BDC12F}"/>
+    <hyperlink ref="D44" r:id="rId40" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-106" xr:uid="{4DF31065-A44E-0C43-B88D-A2706072514D}"/>
+    <hyperlink ref="D40" r:id="rId41" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-102" xr:uid="{A901FF5D-0035-7C4A-8376-2A9C68A1EFB8}"/>
+    <hyperlink ref="D52" r:id="rId42" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-119" xr:uid="{CBF9F757-C018-5746-BD8C-70EBAD78FD19}"/>
     <hyperlink ref="D58" r:id="rId43" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-131" xr:uid="{BF9C639B-F550-024E-9AA2-123B5F20134F}"/>
     <hyperlink ref="D49" r:id="rId44" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-114" xr:uid="{AAC97D52-9515-DE4D-B109-6E5B0047AECD}"/>
-    <hyperlink ref="D56" r:id="rId45" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-109" xr:uid="{2D1F9345-FF1F-0F4A-B69C-1A976AC27378}"/>
-    <hyperlink ref="D68" r:id="rId46" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-120" xr:uid="{3EDA7D34-DAF6-F344-81C9-BC033B077780}"/>
-    <hyperlink ref="D69" r:id="rId47" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-125" xr:uid="{FDC044E2-79A7-DC47-888D-31E48A3384D8}"/>
-    <hyperlink ref="D70" r:id="rId48" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-115?atlOrigin=eyJpIjoiYTJkZDc0NmNmMmFiNDhmMDkwZjc1ZTJkYjE4MDc0ZjciLCJwIjoiaiJ9" xr:uid="{8D8B9472-5911-C34E-B4AC-3FD07397B774}"/>
+    <hyperlink ref="D46" r:id="rId45" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-109" xr:uid="{2D1F9345-FF1F-0F4A-B69C-1A976AC27378}"/>
+    <hyperlink ref="D53" r:id="rId46" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-120" xr:uid="{3EDA7D34-DAF6-F344-81C9-BC033B077780}"/>
+    <hyperlink ref="D55" r:id="rId47" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-125" xr:uid="{FDC044E2-79A7-DC47-888D-31E48A3384D8}"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-115?atlOrigin=eyJpIjoiYTJkZDc0NmNmMmFiNDhmMDkwZjc1ZTJkYjE4MDc0ZjciLCJwIjoiaiJ9" xr:uid="{8D8B9472-5911-C34E-B4AC-3FD07397B774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8BE518-2ECA-BB45-88EE-051CFCD9F33B}">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97162C15-44A7-3F4B-92AD-30B0A7E1CF40}">
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="12">
-        <v>4473</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="12">
-        <v>648</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11">
-        <v>45528</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="12">
-        <v>504</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11">
-        <v>45540</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="9">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9132.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="9">
+        <v>813.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="9">
         <v>1005</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22">
-        <v>45552</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="12">
-        <v>603</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22">
-        <v>45552</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1005</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11">
-        <v>45562</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12">
-        <v>7001</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11">
-        <v>45562</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="12">
-        <v>407.4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>45562</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="12">
-        <v>10800</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="11">
-        <v>45587</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="12">
-        <v>252</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="12">
-        <v>378</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="11">
-        <v>45603</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1340.81</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="11">
-        <v>45628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="12">
-        <v>756</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="11">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="12">
-        <v>704</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="11">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1290</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="11">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1134</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="11">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="12">
-        <v>134</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="11">
-        <v>45663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="12">
-        <v>6948</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="11">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="12">
-        <v>270</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="11">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12">
-        <v>5025</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="11">
-        <v>45674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2680</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="11">
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="12">
-        <v>630</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="11">
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="12">
-        <v>378</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="11">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="12">
-        <v>918</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="11">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="12">
-        <v>504</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="11">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1340</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="11">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="12">
-        <v>670</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="11">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1072</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="11">
-        <v>45734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="9">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="9">
+        <f>SUM(C2:C13)</f>
+        <v>21394.43</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-    <sortCondition ref="D2:D29"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-99" xr:uid="{1142AD27-204E-CB41-8352-F010B003AAB8}"/>
-    <hyperlink ref="C11" r:id="rId2" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-90" xr:uid="{FEE82C6A-7D35-A941-A8F2-C18C7D1B229C}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-103" xr:uid="{E412C8B9-32DC-7E44-AE99-63EF93BB2079}"/>
-    <hyperlink ref="C4" r:id="rId4" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-109" xr:uid="{B178AA12-A8C8-F04E-806E-3A77D7489C4F}"/>
-    <hyperlink ref="C18" r:id="rId5" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-110" xr:uid="{69BED03D-65DA-B64C-B31D-B56B01BECFC8}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-89" xr:uid="{C256CE8F-91A2-5743-BA67-B52D487C79E8}"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-105" xr:uid="{F9D0C87B-C15C-EE49-9F4D-0F0F8A4072CF}"/>
-    <hyperlink ref="C5" r:id="rId8" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-104" xr:uid="{254C34ED-C16A-2E4A-A50D-08D000383395}"/>
-    <hyperlink ref="C7" r:id="rId9" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-60" xr:uid="{CA3F3A28-DCF0-9E41-A959-A0CD8B5F8147}"/>
-    <hyperlink ref="C10" r:id="rId10" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-76" xr:uid="{FF41E8E1-922C-3440-BD59-14216E7FF4DC}"/>
-    <hyperlink ref="C8" r:id="rId11" display="https://bioinformatics-core-msu.atlassian.net/jira/core/projects/BCC/board?selectedIssue=BCC-60" xr:uid="{207DC511-8DDD-9E49-9DAD-27038DF70B63}"/>
-    <hyperlink ref="C12" r:id="rId12" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-114" xr:uid="{F21E2D3D-5C03-8B43-8B84-67E78A7EE9DA}"/>
-    <hyperlink ref="C20" r:id="rId13" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-131" xr:uid="{D281710A-000E-F44C-B33E-F662B98C41A8}"/>
-    <hyperlink ref="C13" r:id="rId14" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-119" xr:uid="{7865EDC5-9AD0-E74F-9981-519926D9B69F}"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-94" xr:uid="{388B30A8-9B50-094F-A268-0BCA73C59BDC}"/>
-    <hyperlink ref="C15" r:id="rId16" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-106" xr:uid="{183C4864-03CD-2843-91A3-3D6DD5ED6B94}"/>
-    <hyperlink ref="C14" r:id="rId17" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-102" xr:uid="{3295DB2E-A5C8-B442-B2C6-ADC49AA223E6}"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-126" xr:uid="{D338AF4F-77F8-6D42-A443-E58500AC3C5E}"/>
-    <hyperlink ref="C16" r:id="rId19" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-117" xr:uid="{BCE93B14-6886-114B-9F2E-8D848F097EBA}"/>
-    <hyperlink ref="C21" r:id="rId20" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-124" xr:uid="{7FE276D7-0A12-F34D-BE4E-4E65963452FB}"/>
-    <hyperlink ref="C22" r:id="rId21" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-113" xr:uid="{3069D362-7722-DA4C-9DD3-F596AA713A73}"/>
-    <hyperlink ref="C23" r:id="rId22" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-129" xr:uid="{6DF37BA1-2B44-444D-BBEF-602F7AEE56DA}"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-151" xr:uid="{8B93DBB1-B92F-484A-93D8-632F6C57B0A5}"/>
-    <hyperlink ref="C25" r:id="rId24" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-132" xr:uid="{B5731327-0124-CD4C-A060-687E1E128D17}"/>
-    <hyperlink ref="C26" r:id="rId25" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-142" xr:uid="{495FDF68-04D4-0646-9994-166B4DE30854}"/>
-    <hyperlink ref="C28" r:id="rId26" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-146" xr:uid="{E3C82E13-2C79-B641-93BE-D39AB99F9E21}"/>
-    <hyperlink ref="C27" r:id="rId27" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-143" xr:uid="{C31C8983-E756-3849-98C3-239697AACF06}"/>
-    <hyperlink ref="C29" r:id="rId28" display="https://bioinformatics-core-msu.atlassian.net/browse/BCC-154" xr:uid="{BDB2DC1D-8480-3240-B62A-6E029DB4FA33}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/invoiced.xlsx
+++ b/invoiced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanielepp/Desktop/BioinformaticsCore/business_summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B24DA-3F07-0443-BBA1-2EEDCBB8A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E09339-60ED-E64D-AC80-0893EDF7042A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{E48FB9EA-AF56-8749-8F42-D58886B841D4}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="20120" xr2:uid="{E48FB9EA-AF56-8749-8F42-D58886B841D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
   <si>
     <t>Jira</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>BCC-176</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>~ Q4 Total</t>
+  </si>
+  <si>
+    <t>~ FY Total</t>
+  </si>
+  <si>
+    <t>BCC-124 extension</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelhamid</t>
+  </si>
+  <si>
+    <t>Cristoph Bennig</t>
+  </si>
+  <si>
+    <t>Xianshuang Liu</t>
+  </si>
+  <si>
+    <t>George Abela</t>
+  </si>
+  <si>
+    <t>Louise Comas</t>
   </si>
 </sst>
 </file>
@@ -440,7 +470,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,8 +539,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +574,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD78"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +634,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,10 +754,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -719,13 +765,10 @@
     <xf numFmtId="8" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,14 +783,28 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFD78"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -757,6 +814,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2788D38-D4CA-EB4C-B6B6-E159D0752C95}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{C2788D38-D4CA-EB4C-B6B6-E159D0752C95}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{50728172-3B72-024D-8A8D-B0B8A8F6E85B}" name="Jira"/>
+    <tableColumn id="2" xr3:uid="{3F9EA368-6B56-C445-886A-F816AAF38FA2}" name="Consultant"/>
+    <tableColumn id="3" xr3:uid="{85324D26-F29D-4B48-AC7A-9E6EFE08035A}" name="Estimate" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE433C-B29E-354A-9C80-1E84791695AA}">
   <dimension ref="A1:I398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="124" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="124" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,16 +1878,16 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B50" s="9">
         <v>2051.58</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="49">
         <v>45743</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="51" t="s">
         <v>112</v>
       </c>
       <c r="F50" s="9"/>
@@ -1860,16 +1929,16 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="48">
         <v>2010</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="49">
         <v>45741</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F53" s="9"/>
@@ -1894,16 +1963,16 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B55" s="9">
         <v>2625.84</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="49">
         <v>45741</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="51" t="s">
         <v>111</v>
       </c>
       <c r="F55" s="9"/>
@@ -2036,7 +2105,7 @@
       <c r="B63" s="30">
         <v>378</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="31">
         <v>45727</v>
       </c>
       <c r="D63" s="36" t="s">
@@ -2121,10 +2190,10 @@
       <c r="B68" s="9">
         <v>259.56</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="50">
         <v>45603</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="52" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="9"/>
@@ -2138,10 +2207,10 @@
       <c r="B69" s="38">
         <v>1134</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="50">
         <v>45649</v>
       </c>
-      <c r="D69" s="53" t="s">
+      <c r="D69" s="52" t="s">
         <v>84</v>
       </c>
       <c r="F69" s="9"/>
@@ -2155,10 +2224,10 @@
       <c r="B70" s="38">
         <v>407.4</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="50">
         <v>45562</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="52" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="9"/>
@@ -2166,75 +2235,139 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="5"/>
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="9">
+        <v>8375</v>
+      </c>
+      <c r="C71" s="58">
+        <v>45833</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="F71" s="9"/>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="5"/>
+      <c r="A72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="9">
+        <v>8060.25</v>
+      </c>
+      <c r="C72" s="58">
+        <v>45833</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="F72" s="9"/>
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="5"/>
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="9">
+        <v>422.25</v>
+      </c>
+      <c r="C73" s="58">
+        <v>45831</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="5"/>
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="9">
+        <v>813.18</v>
+      </c>
+      <c r="C74" s="58">
+        <v>45827</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="5"/>
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1005</v>
+      </c>
+      <c r="C75" s="58">
+        <v>45827</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="5"/>
+      <c r="A76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="53">
+        <v>804</v>
+      </c>
+      <c r="C76" s="49">
+        <v>45834</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="5"/>
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="9">
+        <v>660</v>
+      </c>
+      <c r="C77" s="49">
+        <v>45833</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="5"/>
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="9">
+        <v>595</v>
+      </c>
+      <c r="C78" s="49">
+        <v>45833</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5170,18 +5303,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97162C15-44A7-3F4B-92AD-30B0A7E1CF40}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -5192,7 +5338,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -5203,7 +5349,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>115</v>
       </c>
@@ -5214,7 +5360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -5225,7 +5371,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -5236,7 +5382,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -5247,7 +5393,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -5258,7 +5404,7 @@
         <v>9132.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -5269,18 +5415,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="44">
         <v>1206</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -5291,7 +5437,7 @@
         <v>813.18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -5302,7 +5448,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -5313,13 +5459,40 @@
         <v>804</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="9">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="57">
         <f>SUM(C2:C13)</f>
         <v>21394.43</v>
       </c>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="55">
+        <f>SUM(C14+K17)</f>
+        <v>81008.760000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="44">
+        <v>59614.33</v>
+      </c>
+      <c r="L17">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/invoiced.xlsx
+++ b/invoiced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanielepp/Desktop/BioinformaticsCore/business_summaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F17212-DD4F-B94B-B480-892D792FDF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF29DD-5D05-BC46-97C3-74B91B11528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37240" yWindow="620" windowWidth="28160" windowHeight="21100" xr2:uid="{E48FB9EA-AF56-8749-8F42-D58886B841D4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
   <si>
     <t>Jira</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>BCC-195</t>
+  </si>
+  <si>
+    <t>BCC-128-2</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1239,7 @@
   <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2648,11 +2651,19 @@
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="37"/>
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="53">
+        <v>536</v>
+      </c>
+      <c r="C90" s="56">
+        <v>45929</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="G90" s="47"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
